--- a/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcadriano_p2_tsne.xlsx
+++ b/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcadriano_p2_tsne.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10844" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11188" uniqueCount="437">
   <si>
     <t>WorkFolder</t>
   </si>
@@ -644,6 +644,708 @@
   <si>
     <t>T3_Supination and pronation_t-SNE_IF_13-Apr-2017_MI_3000_LR_300_PE_28</t>
   </si>
+  <si>
+    <t>13-Apr-2017 11:06:57</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 11:10:15</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 11:54:23</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 11:57:37</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 12:55:39</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 13:26:52</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 13:29:43</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 14:57:03</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 15:00:16</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 16:00:25</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 16:03:50</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 17:19:46</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_13-Apr-2017_MI_3000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 18:19:47</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_13-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_4000_LR_300_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 18:23:39</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_13-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 20:26:39</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_13-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 20:34:16</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_13-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 22:52:27</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_13-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 22:58:54</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_13-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 01:24:12</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 03:05:52</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 03:08:32</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 04:21:11</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 04:25:06</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 05:23:18</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 05:27:14</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 06:31:21</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 07:14:08</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 07:16:47</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 08:26:54</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 08:31:08</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 09:21:09</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 09:24:25</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 10:22:31</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 10:55:13</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 10:58:15</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 12:06:04</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 12:09:38</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 13:07:13</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 13:10:15</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 14:20:38</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_14-Apr-2017_MI_4000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 14:51:41</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_5000_LR_300_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 14:55:39</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 16:54:36</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 17:01:28</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 19:35:28</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 19:42:55</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 22:21:27</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 23:51:44</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 23:54:38</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_14-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 01:08:50</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 01:12:17</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 02:13:29</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 02:18:41</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 03:31:17</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 04:03:43</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 04:06:43</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:04:04</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:07:25</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:53:46</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:56:38</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 07:14:49</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 07:45:48</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 07:48:27</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 09:17:06</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 09:20:06</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 10:16:02</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 10:19:38</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 12:05:33</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_15-Apr-2017_MI_5000_LR_300_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 12:48:02</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_1000_LR_400_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 12:51:36</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 14:25:16</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 14:31:58</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 16:27:13</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 16:33:16</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 19:11:52</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 20:40:43</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 20:43:37</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 21:59:14</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 22:02:24</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 22:52:59</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 22:56:47</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_15-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 00:27:42</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 01:10:20</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 01:13:21</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 02:19:50</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 02:23:31</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 03:07:51</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 03:10:55</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 04:10:14</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 04:41:41</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 04:44:26</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 06:10:34</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 06:13:33</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 07:06:33</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 07:09:40</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 08:18:16</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_16-Apr-2017_MI_1000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 08:51:31</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_2000_LR_400_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 08:55:06</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 10:32:56</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 10:39:53</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 12:37:04</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 12:43:16</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 15:12:49</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 16:45:10</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 16:47:56</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 17:55:04</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 17:58:32</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 18:56:53</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 18:59:59</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 20:31:36</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 21:20:22</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 21:23:42</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 22:23:01</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 22:26:24</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_16-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 11:31:34</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
 </sst>
 </file>
 
@@ -6511,8 +7213,8 @@
       <c r="M73" t="s">
         <v>4</v>
       </c>
-      <c r="N73">
-        <v>0</v>
+      <c r="N73" t="n">
+        <v>1.0</v>
       </c>
       <c r="O73" t="s">
         <v>201</v>
@@ -6523,8 +7225,26 @@
       <c r="Q73" t="n">
         <v>0.49000446438435574</v>
       </c>
+      <c r="R73" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>6.119498468786574</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.8889230527833212</v>
+      </c>
+      <c r="U73" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="V73" t="n">
+        <v>78.94736842105263</v>
+      </c>
       <c r="W73" t="s">
         <v>202</v>
+      </c>
+      <c r="X73" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -6567,8 +7287,38 @@
       <c r="M74" t="s">
         <v>4</v>
       </c>
-      <c r="N74">
-        <v>0</v>
+      <c r="N74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>203</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.22719672081967524</v>
+      </c>
+      <c r="R74" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3.9945980008636393</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.9518426952814653</v>
+      </c>
+      <c r="U74" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V74" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W74" t="s">
+        <v>204</v>
+      </c>
+      <c r="X74" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -6611,8 +7361,38 @@
       <c r="M75" t="s">
         <v>4</v>
       </c>
-      <c r="N75">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>205</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.2480063357944875</v>
+      </c>
+      <c r="R75" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>7.778167271561749</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.9457874037696066</v>
+      </c>
+      <c r="U75" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V75" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W75" t="s">
+        <v>206</v>
+      </c>
+      <c r="X75" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -6655,8 +7435,38 @@
       <c r="M76" t="s">
         <v>4</v>
       </c>
-      <c r="N76">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>207</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.1474644547996764</v>
+      </c>
+      <c r="R76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.8765235182208029</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.9846966398195215</v>
+      </c>
+      <c r="U76" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V76" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W76" t="s">
+        <v>208</v>
+      </c>
+      <c r="X76" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -6699,8 +7509,38 @@
       <c r="M77" t="s">
         <v>4</v>
       </c>
-      <c r="N77">
-        <v>0</v>
+      <c r="N77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>209</v>
+      </c>
+      <c r="P77" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.30114427262024535</v>
+      </c>
+      <c r="R77" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>8.872416892065603</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.9313788175275454</v>
+      </c>
+      <c r="U77" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W77" t="s">
+        <v>210</v>
+      </c>
+      <c r="X77" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -6743,8 +7583,38 @@
       <c r="M78" t="s">
         <v>4</v>
       </c>
-      <c r="N78">
-        <v>0</v>
+      <c r="N78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>211</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.17113443588757704</v>
+      </c>
+      <c r="R78" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4.86381577175046</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.9629760840534372</v>
+      </c>
+      <c r="U78" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V78" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W78" t="s">
+        <v>212</v>
+      </c>
+      <c r="X78" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -6787,8 +7657,38 @@
       <c r="M79" t="s">
         <v>4</v>
       </c>
-      <c r="N79">
-        <v>0</v>
+      <c r="N79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>213</v>
+      </c>
+      <c r="P79" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.33336566048483185</v>
+      </c>
+      <c r="R79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5.848676838271182</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.9467522157539301</v>
+      </c>
+      <c r="U79" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V79" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W79" t="s">
+        <v>214</v>
+      </c>
+      <c r="X79" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -6831,8 +7731,38 @@
       <c r="M80" t="s">
         <v>4</v>
       </c>
-      <c r="N80">
-        <v>0</v>
+      <c r="N80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>215</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.4999495481155787</v>
+      </c>
+      <c r="R80" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>8.176151597935409</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.9323485585320664</v>
+      </c>
+      <c r="U80" t="n">
+        <v>91.2280701754386</v>
+      </c>
+      <c r="V80" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W80" t="s">
+        <v>216</v>
+      </c>
+      <c r="X80" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -6875,8 +7805,38 @@
       <c r="M81" t="s">
         <v>4</v>
       </c>
-      <c r="N81">
-        <v>0</v>
+      <c r="N81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>217</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.3565304156928999</v>
+      </c>
+      <c r="R81" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>8.720448705191355</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.9253036642484855</v>
+      </c>
+      <c r="U81" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V81" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W81" t="s">
+        <v>218</v>
+      </c>
+      <c r="X81" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -6919,8 +7879,38 @@
       <c r="M82" t="s">
         <v>4</v>
       </c>
-      <c r="N82">
-        <v>0</v>
+      <c r="N82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>219</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.3758870866260988</v>
+      </c>
+      <c r="R82" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>6.35364488395293</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.9498155089847853</v>
+      </c>
+      <c r="U82" t="n">
+        <v>92.39766081871345</v>
+      </c>
+      <c r="V82" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W82" t="s">
+        <v>220</v>
+      </c>
+      <c r="X82" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -6963,8 +7953,38 @@
       <c r="M83" t="s">
         <v>4</v>
       </c>
-      <c r="N83">
-        <v>0</v>
+      <c r="N83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>221</v>
+      </c>
+      <c r="P83" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.36557080998455405</v>
+      </c>
+      <c r="R83" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7.114536209548954</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.9486982333504769</v>
+      </c>
+      <c r="U83" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V83" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W83" t="s">
+        <v>222</v>
+      </c>
+      <c r="X83" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -7007,8 +8027,38 @@
       <c r="M84" t="s">
         <v>4</v>
       </c>
-      <c r="N84">
-        <v>0</v>
+      <c r="N84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>223</v>
+      </c>
+      <c r="P84" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.30038523890942415</v>
+      </c>
+      <c r="R84" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4.969791893421334</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.974944834809337</v>
+      </c>
+      <c r="U84" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V84" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W84" t="s">
+        <v>224</v>
+      </c>
+      <c r="X84" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -7051,8 +8101,38 @@
       <c r="M85" t="s">
         <v>4</v>
       </c>
-      <c r="N85">
-        <v>0</v>
+      <c r="N85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>225</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.2741434975890904</v>
+      </c>
+      <c r="R85" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>6.229599828994508</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.9448251549074399</v>
+      </c>
+      <c r="U85" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V85" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W85" t="s">
+        <v>226</v>
+      </c>
+      <c r="X85" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -7095,8 +8175,38 @@
       <c r="M86" t="s">
         <v>4</v>
       </c>
-      <c r="N86">
-        <v>0</v>
+      <c r="N86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>227</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.29807576140534486</v>
+      </c>
+      <c r="R86" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>12.380234913657288</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.9265090559640502</v>
+      </c>
+      <c r="U86" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V86" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W86" t="s">
+        <v>228</v>
+      </c>
+      <c r="X86" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7139,8 +8249,38 @@
       <c r="M87" t="s">
         <v>4</v>
       </c>
-      <c r="N87">
-        <v>0</v>
+      <c r="N87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>230</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.601317450949832</v>
+      </c>
+      <c r="R87" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>7.225811708492472</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.9211278748882493</v>
+      </c>
+      <c r="U87" t="n">
+        <v>91.81286549707602</v>
+      </c>
+      <c r="V87" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W87" t="s">
+        <v>231</v>
+      </c>
+      <c r="X87" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -7183,8 +8323,38 @@
       <c r="M88" t="s">
         <v>4</v>
       </c>
-      <c r="N88">
-        <v>0</v>
+      <c r="N88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>232</v>
+      </c>
+      <c r="P88" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.2550877348501164</v>
+      </c>
+      <c r="R88" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5.9102155987236955</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.947712309290734</v>
+      </c>
+      <c r="U88" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V88" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W88" t="s">
+        <v>233</v>
+      </c>
+      <c r="X88" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -7227,8 +8397,38 @@
       <c r="M89" t="s">
         <v>4</v>
       </c>
-      <c r="N89">
-        <v>0</v>
+      <c r="N89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>234</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.2930021767681428</v>
+      </c>
+      <c r="R89" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>6.844812456445244</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.8795034596904087</v>
+      </c>
+      <c r="U89" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V89" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W89" t="s">
+        <v>235</v>
+      </c>
+      <c r="X89" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -7271,8 +8471,38 @@
       <c r="M90" t="s">
         <v>4</v>
       </c>
-      <c r="N90">
-        <v>0</v>
+      <c r="N90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>236</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.22173208409986067</v>
+      </c>
+      <c r="R90" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.682710053394065</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.9648580042841939</v>
+      </c>
+      <c r="U90" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V90" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W90" t="s">
+        <v>237</v>
+      </c>
+      <c r="X90" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -7315,8 +8545,38 @@
       <c r="M91" t="s">
         <v>4</v>
       </c>
-      <c r="N91">
-        <v>0</v>
+      <c r="N91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>238</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.2734604914060714</v>
+      </c>
+      <c r="R91" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>6.6569487871027375</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.9467572515745512</v>
+      </c>
+      <c r="U91" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V91" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W91" t="s">
+        <v>239</v>
+      </c>
+      <c r="X91" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -7359,8 +8619,38 @@
       <c r="M92" t="s">
         <v>4</v>
       </c>
-      <c r="N92">
-        <v>0</v>
+      <c r="N92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>240</v>
+      </c>
+      <c r="P92" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.24768776236428636</v>
+      </c>
+      <c r="R92" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4.342689264282818</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.959659891610024</v>
+      </c>
+      <c r="U92" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V92" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W92" t="s">
+        <v>241</v>
+      </c>
+      <c r="X92" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7403,8 +8693,38 @@
       <c r="M93" t="s">
         <v>4</v>
       </c>
-      <c r="N93">
-        <v>0</v>
+      <c r="N93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>242</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.2128478386473791</v>
+      </c>
+      <c r="R93" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.8257857531740525</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.980744945621673</v>
+      </c>
+      <c r="U93" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W93" t="s">
+        <v>243</v>
+      </c>
+      <c r="X93" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -7447,8 +8767,38 @@
       <c r="M94" t="s">
         <v>4</v>
       </c>
-      <c r="N94">
-        <v>0</v>
+      <c r="N94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>244</v>
+      </c>
+      <c r="P94" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.4648980341835678</v>
+      </c>
+      <c r="R94" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>7.4968316321002915</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.936455470693467</v>
+      </c>
+      <c r="U94" t="n">
+        <v>93.5672514619883</v>
+      </c>
+      <c r="V94" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W94" t="s">
+        <v>245</v>
+      </c>
+      <c r="X94" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -7491,8 +8841,38 @@
       <c r="M95" t="s">
         <v>4</v>
       </c>
-      <c r="N95">
-        <v>0</v>
+      <c r="N95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>246</v>
+      </c>
+      <c r="P95" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.24166762103950745</v>
+      </c>
+      <c r="R95" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>9.631062438928621</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.9323361374666856</v>
+      </c>
+      <c r="U95" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V95" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W95" t="s">
+        <v>247</v>
+      </c>
+      <c r="X95" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -7535,8 +8915,38 @@
       <c r="M96" t="s">
         <v>4</v>
       </c>
-      <c r="N96">
-        <v>0</v>
+      <c r="N96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>248</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.22202810302953857</v>
+      </c>
+      <c r="R96" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4.43960546789202</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.967264932643234</v>
+      </c>
+      <c r="U96" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V96" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W96" t="s">
+        <v>249</v>
+      </c>
+      <c r="X96" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -7579,8 +8989,38 @@
       <c r="M97" t="s">
         <v>4</v>
       </c>
-      <c r="N97">
-        <v>0</v>
+      <c r="N97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>250</v>
+      </c>
+      <c r="P97" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.1944779834108843</v>
+      </c>
+      <c r="R97" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.541607437161538</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.9723177514843228</v>
+      </c>
+      <c r="U97" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V97" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W97" t="s">
+        <v>251</v>
+      </c>
+      <c r="X97" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -7623,8 +9063,38 @@
       <c r="M98" t="s">
         <v>4</v>
       </c>
-      <c r="N98">
-        <v>0</v>
+      <c r="N98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>252</v>
+      </c>
+      <c r="P98" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.2357950061125731</v>
+      </c>
+      <c r="R98" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4.910918089682077</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.958339129972285</v>
+      </c>
+      <c r="U98" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V98" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W98" t="s">
+        <v>253</v>
+      </c>
+      <c r="X98" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -7667,8 +9137,38 @@
       <c r="M99" t="s">
         <v>4</v>
       </c>
-      <c r="N99">
-        <v>0</v>
+      <c r="N99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>254</v>
+      </c>
+      <c r="P99" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.19516270176093187</v>
+      </c>
+      <c r="R99" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4.306620737101108</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.9636137917839415</v>
+      </c>
+      <c r="U99" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V99" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W99" t="s">
+        <v>255</v>
+      </c>
+      <c r="X99" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -7711,8 +9211,38 @@
       <c r="M100" t="s">
         <v>4</v>
       </c>
-      <c r="N100">
-        <v>0</v>
+      <c r="N100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>256</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.1776480801023279</v>
+      </c>
+      <c r="R100" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1.7421471865517923</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.9805146214884589</v>
+      </c>
+      <c r="U100" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V100" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W100" t="s">
+        <v>257</v>
+      </c>
+      <c r="X100" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -7755,8 +9285,38 @@
       <c r="M101" t="s">
         <v>4</v>
       </c>
-      <c r="N101">
-        <v>0</v>
+      <c r="N101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>258</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.5810403195333524</v>
+      </c>
+      <c r="R101" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>13.791626595862736</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.854746384689391</v>
+      </c>
+      <c r="U101" t="n">
+        <v>88.30409356725146</v>
+      </c>
+      <c r="V101" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W101" t="s">
+        <v>259</v>
+      </c>
+      <c r="X101" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -7799,8 +9359,38 @@
       <c r="M102" t="s">
         <v>4</v>
       </c>
-      <c r="N102">
-        <v>0</v>
+      <c r="N102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>260</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.20273357846714468</v>
+      </c>
+      <c r="R102" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>9.046740644399945</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.9169888227280701</v>
+      </c>
+      <c r="U102" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V102" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W102" t="s">
+        <v>261</v>
+      </c>
+      <c r="X102" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -7843,8 +9433,38 @@
       <c r="M103" t="s">
         <v>4</v>
       </c>
-      <c r="N103">
-        <v>0</v>
+      <c r="N103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>262</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.23789800573454123</v>
+      </c>
+      <c r="R103" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4.248111979143378</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.9630276515658298</v>
+      </c>
+      <c r="U103" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V103" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W103" t="s">
+        <v>263</v>
+      </c>
+      <c r="X103" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -7887,8 +9507,38 @@
       <c r="M104" t="s">
         <v>4</v>
       </c>
-      <c r="N104">
-        <v>0</v>
+      <c r="N104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>264</v>
+      </c>
+      <c r="P104" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.17575959913037664</v>
+      </c>
+      <c r="R104" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3.1956837515957077</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.9678934057441284</v>
+      </c>
+      <c r="U104" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V104" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W104" t="s">
+        <v>265</v>
+      </c>
+      <c r="X104" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -7931,8 +9581,38 @@
       <c r="M105" t="s">
         <v>4</v>
       </c>
-      <c r="N105">
-        <v>0</v>
+      <c r="N105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>266</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.2767197336733549</v>
+      </c>
+      <c r="R105" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2.791101290295858</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.9749000495244209</v>
+      </c>
+      <c r="U105" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V105" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W105" t="s">
+        <v>267</v>
+      </c>
+      <c r="X105" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -7975,8 +9655,38 @@
       <c r="M106" t="s">
         <v>4</v>
       </c>
-      <c r="N106">
-        <v>0</v>
+      <c r="N106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O106" t="s">
+        <v>268</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.19135572515441623</v>
+      </c>
+      <c r="R106" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.0112833780215484</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.9729725565403189</v>
+      </c>
+      <c r="U106" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V106" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W106" t="s">
+        <v>269</v>
+      </c>
+      <c r="X106" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -8019,8 +9729,38 @@
       <c r="M107" t="s">
         <v>4</v>
       </c>
-      <c r="N107">
-        <v>0</v>
+      <c r="N107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>270</v>
+      </c>
+      <c r="P107" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.3297789060557008</v>
+      </c>
+      <c r="R107" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>7.544972501214154</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.918944039309346</v>
+      </c>
+      <c r="U107" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V107" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W107" t="s">
+        <v>271</v>
+      </c>
+      <c r="X107" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -8063,8 +9803,38 @@
       <c r="M108" t="s">
         <v>4</v>
       </c>
-      <c r="N108">
-        <v>0</v>
+      <c r="N108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>272</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.4757928692216993</v>
+      </c>
+      <c r="R108" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5.6868219395371495</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.9465574776369198</v>
+      </c>
+      <c r="U108" t="n">
+        <v>92.39766081871345</v>
+      </c>
+      <c r="V108" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W108" t="s">
+        <v>273</v>
+      </c>
+      <c r="X108" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -8107,8 +9877,38 @@
       <c r="M109" t="s">
         <v>4</v>
       </c>
-      <c r="N109">
-        <v>0</v>
+      <c r="N109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>274</v>
+      </c>
+      <c r="P109" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.40876715744515124</v>
+      </c>
+      <c r="R109" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>10.934129479126156</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.9052024533135078</v>
+      </c>
+      <c r="U109" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V109" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W109" t="s">
+        <v>275</v>
+      </c>
+      <c r="X109" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -8151,8 +9951,38 @@
       <c r="M110" t="s">
         <v>4</v>
       </c>
-      <c r="N110">
-        <v>0</v>
+      <c r="N110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>276</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.32820889938442654</v>
+      </c>
+      <c r="R110" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>11.588585222635963</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.8988011882266285</v>
+      </c>
+      <c r="U110" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V110" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W110" t="s">
+        <v>277</v>
+      </c>
+      <c r="X110" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -8195,8 +10025,38 @@
       <c r="M111" t="s">
         <v>4</v>
       </c>
-      <c r="N111">
-        <v>0</v>
+      <c r="N111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>278</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.2912164033808633</v>
+      </c>
+      <c r="R111" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5.37378886262486</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.9551997997024179</v>
+      </c>
+      <c r="U111" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V111" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W111" t="s">
+        <v>279</v>
+      </c>
+      <c r="X111" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -8239,8 +10099,38 @@
       <c r="M112" t="s">
         <v>4</v>
       </c>
-      <c r="N112">
-        <v>0</v>
+      <c r="N112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>280</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.33178416618176954</v>
+      </c>
+      <c r="R112" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>6.641595316477696</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.933947725570378</v>
+      </c>
+      <c r="U112" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V112" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W112" t="s">
+        <v>281</v>
+      </c>
+      <c r="X112" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -8283,8 +10173,38 @@
       <c r="M113" t="s">
         <v>4</v>
       </c>
-      <c r="N113">
-        <v>0</v>
+      <c r="N113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>282</v>
+      </c>
+      <c r="P113" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.3054778182840092</v>
+      </c>
+      <c r="R113" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>12.294574012645128</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.9142486152459688</v>
+      </c>
+      <c r="U113" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V113" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W113" t="s">
+        <v>283</v>
+      </c>
+      <c r="X113" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -8327,8 +10247,38 @@
       <c r="M114" t="s">
         <v>4</v>
       </c>
-      <c r="N114">
-        <v>0</v>
+      <c r="N114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>284</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.2261464777664699</v>
+      </c>
+      <c r="R114" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>6.561837789156504</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.9554988006767737</v>
+      </c>
+      <c r="U114" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V114" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W114" t="s">
+        <v>285</v>
+      </c>
+      <c r="X114" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -8371,8 +10321,38 @@
       <c r="M115" t="s">
         <v>4</v>
       </c>
-      <c r="N115">
-        <v>0</v>
+      <c r="N115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>287</v>
+      </c>
+      <c r="P115" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.577797115211327</v>
+      </c>
+      <c r="R115" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>7.376000361470015</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.9458692572680027</v>
+      </c>
+      <c r="U115" t="n">
+        <v>88.30409356725146</v>
+      </c>
+      <c r="V115" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W115" t="s">
+        <v>288</v>
+      </c>
+      <c r="X115" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -8415,8 +10395,38 @@
       <c r="M116" t="s">
         <v>4</v>
       </c>
-      <c r="N116">
-        <v>0</v>
+      <c r="N116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>289</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.3061893824083235</v>
+      </c>
+      <c r="R116" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>8.786146959546553</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.9116783096611543</v>
+      </c>
+      <c r="U116" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V116" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W116" t="s">
+        <v>290</v>
+      </c>
+      <c r="X116" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -8459,8 +10469,38 @@
       <c r="M117" t="s">
         <v>4</v>
       </c>
-      <c r="N117">
-        <v>0</v>
+      <c r="N117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>291</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.25503203087341575</v>
+      </c>
+      <c r="R117" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>8.609650139237786</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.9217495223052999</v>
+      </c>
+      <c r="U117" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V117" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W117" t="s">
+        <v>292</v>
+      </c>
+      <c r="X117" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -8503,8 +10543,38 @@
       <c r="M118" t="s">
         <v>4</v>
       </c>
-      <c r="N118">
-        <v>0</v>
+      <c r="N118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>293</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.24891337473117225</v>
+      </c>
+      <c r="R118" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3.3872041001167967</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.9650567852936676</v>
+      </c>
+      <c r="U118" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V118" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W118" t="s">
+        <v>294</v>
+      </c>
+      <c r="X118" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -8547,8 +10617,38 @@
       <c r="M119" t="s">
         <v>4</v>
       </c>
-      <c r="N119">
-        <v>0</v>
+      <c r="N119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>295</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.2826217339090338</v>
+      </c>
+      <c r="R119" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.804919998752586</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.9689529422909021</v>
+      </c>
+      <c r="U119" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V119" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W119" t="s">
+        <v>296</v>
+      </c>
+      <c r="X119" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -8591,8 +10691,38 @@
       <c r="M120" t="s">
         <v>4</v>
       </c>
-      <c r="N120">
-        <v>0</v>
+      <c r="N120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>297</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.23335665038336906</v>
+      </c>
+      <c r="R120" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4.504841786111452</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.9614901958652657</v>
+      </c>
+      <c r="U120" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V120" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W120" t="s">
+        <v>298</v>
+      </c>
+      <c r="X120" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -8635,8 +10765,38 @@
       <c r="M121" t="s">
         <v>4</v>
       </c>
-      <c r="N121">
-        <v>0</v>
+      <c r="N121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>299</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.2002489252611923</v>
+      </c>
+      <c r="R121" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>4.660397666888009</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.9726279606296782</v>
+      </c>
+      <c r="U121" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V121" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W121" t="s">
+        <v>300</v>
+      </c>
+      <c r="X121" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -8679,8 +10839,38 @@
       <c r="M122" t="s">
         <v>4</v>
       </c>
-      <c r="N122">
-        <v>0</v>
+      <c r="N122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>301</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.4400067228493487</v>
+      </c>
+      <c r="R122" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>6.690327116127121</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.9615734842352213</v>
+      </c>
+      <c r="U122" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V122" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W122" t="s">
+        <v>302</v>
+      </c>
+      <c r="X122" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -8723,8 +10913,38 @@
       <c r="M123" t="s">
         <v>4</v>
       </c>
-      <c r="N123">
-        <v>0</v>
+      <c r="N123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>303</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.21867947078926342</v>
+      </c>
+      <c r="R123" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S123" t="n">
+        <v>6.957585325958468</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.9683784475046622</v>
+      </c>
+      <c r="U123" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W123" t="s">
+        <v>304</v>
+      </c>
+      <c r="X123" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -8767,8 +10987,38 @@
       <c r="M124" t="s">
         <v>4</v>
       </c>
-      <c r="N124">
-        <v>0</v>
+      <c r="N124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>305</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.246812769988205</v>
+      </c>
+      <c r="R124" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>4.280277035970193</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.9612582538907561</v>
+      </c>
+      <c r="U124" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V124" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W124" t="s">
+        <v>306</v>
+      </c>
+      <c r="X124" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -8811,8 +11061,38 @@
       <c r="M125" t="s">
         <v>4</v>
       </c>
-      <c r="N125">
-        <v>0</v>
+      <c r="N125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>307</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.20355785543155314</v>
+      </c>
+      <c r="R125" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.8339322439480186</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.9751840300360248</v>
+      </c>
+      <c r="U125" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V125" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W125" t="s">
+        <v>308</v>
+      </c>
+      <c r="X125" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -8855,8 +11135,38 @@
       <c r="M126" t="s">
         <v>4</v>
       </c>
-      <c r="N126">
-        <v>0</v>
+      <c r="N126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>309</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.2466088744566548</v>
+      </c>
+      <c r="R126" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>8.44486466452483</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.9268319082282246</v>
+      </c>
+      <c r="U126" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V126" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W126" t="s">
+        <v>310</v>
+      </c>
+      <c r="X126" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -8899,8 +11209,38 @@
       <c r="M127" t="s">
         <v>4</v>
       </c>
-      <c r="N127">
-        <v>0</v>
+      <c r="N127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>311</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.1907974177117513</v>
+      </c>
+      <c r="R127" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2.6067626010334726</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.9731233580358779</v>
+      </c>
+      <c r="U127" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V127" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W127" t="s">
+        <v>312</v>
+      </c>
+      <c r="X127" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -8943,8 +11283,38 @@
       <c r="M128" t="s">
         <v>4</v>
       </c>
-      <c r="N128">
-        <v>0</v>
+      <c r="N128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>313</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.16359874093531346</v>
+      </c>
+      <c r="R128" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>1.3846414186643028</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.9880688654574268</v>
+      </c>
+      <c r="U128" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V128" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W128" t="s">
+        <v>314</v>
+      </c>
+      <c r="X128" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -8987,8 +11357,38 @@
       <c r="M129" t="s">
         <v>4</v>
       </c>
-      <c r="N129">
-        <v>0</v>
+      <c r="N129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O129" t="s">
+        <v>315</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.5147751777262606</v>
+      </c>
+      <c r="R129" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>5.943933189069896</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.9477591504670003</v>
+      </c>
+      <c r="U129" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="V129" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W129" t="s">
+        <v>316</v>
+      </c>
+      <c r="X129" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -9031,8 +11431,38 @@
       <c r="M130" t="s">
         <v>4</v>
       </c>
-      <c r="N130">
-        <v>0</v>
+      <c r="N130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>317</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.19556264872301732</v>
+      </c>
+      <c r="R130" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>2.640723225301495</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.9671825059325951</v>
+      </c>
+      <c r="U130" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V130" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W130" t="s">
+        <v>318</v>
+      </c>
+      <c r="X130" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -9075,8 +11505,38 @@
       <c r="M131" t="s">
         <v>4</v>
       </c>
-      <c r="N131">
-        <v>0</v>
+      <c r="N131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>319</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0.2546404037480752</v>
+      </c>
+      <c r="R131" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>5.735016159865532</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0.9584806438770185</v>
+      </c>
+      <c r="U131" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W131" t="s">
+        <v>320</v>
+      </c>
+      <c r="X131" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -9119,8 +11579,38 @@
       <c r="M132" t="s">
         <v>4</v>
       </c>
-      <c r="N132">
-        <v>0</v>
+      <c r="N132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>321</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.15781426138087618</v>
+      </c>
+      <c r="R132" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S132" t="n">
+        <v>2.7550590039910148</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.9746608070854477</v>
+      </c>
+      <c r="U132" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V132" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W132" t="s">
+        <v>322</v>
+      </c>
+      <c r="X132" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -9163,8 +11653,38 @@
       <c r="M133" t="s">
         <v>4</v>
       </c>
-      <c r="N133">
-        <v>0</v>
+      <c r="N133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>323</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0.2562528961108619</v>
+      </c>
+      <c r="R133" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>7.713312149932004</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.9117074564987078</v>
+      </c>
+      <c r="U133" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V133" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W133" t="s">
+        <v>324</v>
+      </c>
+      <c r="X133" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -9207,8 +11727,38 @@
       <c r="M134" t="s">
         <v>4</v>
       </c>
-      <c r="N134">
-        <v>0</v>
+      <c r="N134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>325</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0.2214059259635519</v>
+      </c>
+      <c r="R134" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S134" t="n">
+        <v>4.0525143542829145</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.9669774067615818</v>
+      </c>
+      <c r="U134" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V134" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W134" t="s">
+        <v>326</v>
+      </c>
+      <c r="X134" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -9251,8 +11801,38 @@
       <c r="M135" t="s">
         <v>4</v>
       </c>
-      <c r="N135">
-        <v>0</v>
+      <c r="N135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>327</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.3064588103364443</v>
+      </c>
+      <c r="R135" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>3.5001551690417974</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.9688705422162766</v>
+      </c>
+      <c r="U135" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V135" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W135" t="s">
+        <v>328</v>
+      </c>
+      <c r="X135" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -9295,8 +11875,38 @@
       <c r="M136" t="s">
         <v>4</v>
       </c>
-      <c r="N136">
-        <v>0</v>
+      <c r="N136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>329</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.48475518644431403</v>
+      </c>
+      <c r="R136" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S136" t="n">
+        <v>7.883275887320516</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0.951568087469842</v>
+      </c>
+      <c r="U136" t="n">
+        <v>90.05847953216374</v>
+      </c>
+      <c r="V136" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W136" t="s">
+        <v>330</v>
+      </c>
+      <c r="X136" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -9339,8 +11949,38 @@
       <c r="M137" t="s">
         <v>4</v>
       </c>
-      <c r="N137">
-        <v>0</v>
+      <c r="N137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>331</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.4102274757999975</v>
+      </c>
+      <c r="R137" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>13.828004195475106</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.8790598995232514</v>
+      </c>
+      <c r="U137" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V137" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W137" t="s">
+        <v>332</v>
+      </c>
+      <c r="X137" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -9383,8 +12023,38 @@
       <c r="M138" t="s">
         <v>4</v>
       </c>
-      <c r="N138">
-        <v>0</v>
+      <c r="N138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>333</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.3651913051923774</v>
+      </c>
+      <c r="R138" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>6.510536732977762</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.9530916194762014</v>
+      </c>
+      <c r="U138" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V138" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W138" t="s">
+        <v>334</v>
+      </c>
+      <c r="X138" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -9427,8 +12097,38 @@
       <c r="M139" t="s">
         <v>4</v>
       </c>
-      <c r="N139">
-        <v>0</v>
+      <c r="N139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>335</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.331282103903062</v>
+      </c>
+      <c r="R139" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>4.800652934995199</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.9667427886914441</v>
+      </c>
+      <c r="U139" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V139" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W139" t="s">
+        <v>336</v>
+      </c>
+      <c r="X139" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -9471,8 +12171,38 @@
       <c r="M140" t="s">
         <v>4</v>
       </c>
-      <c r="N140">
-        <v>0</v>
+      <c r="N140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>337</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.3817778392132496</v>
+      </c>
+      <c r="R140" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S140" t="n">
+        <v>6.665803993895936</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.9420749272364423</v>
+      </c>
+      <c r="U140" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V140" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W140" t="s">
+        <v>338</v>
+      </c>
+      <c r="X140" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -9515,8 +12245,38 @@
       <c r="M141" t="s">
         <v>4</v>
       </c>
-      <c r="N141">
-        <v>0</v>
+      <c r="N141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>339</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.3316767177962596</v>
+      </c>
+      <c r="R141" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>8.514148273855485</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.915848542525823</v>
+      </c>
+      <c r="U141" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V141" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W141" t="s">
+        <v>340</v>
+      </c>
+      <c r="X141" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -9559,8 +12319,38 @@
       <c r="M142" t="s">
         <v>4</v>
       </c>
-      <c r="N142">
-        <v>0</v>
+      <c r="N142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>341</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0.250902615331837</v>
+      </c>
+      <c r="R142" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>8.498648181724727</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.8985962187060168</v>
+      </c>
+      <c r="U142" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V142" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W142" t="s">
+        <v>342</v>
+      </c>
+      <c r="X142" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -9603,8 +12393,38 @@
       <c r="M143" t="s">
         <v>4</v>
       </c>
-      <c r="N143">
-        <v>0</v>
+      <c r="N143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>344</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.6185805762728762</v>
+      </c>
+      <c r="R143" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>9.346232802468968</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.8618857349632133</v>
+      </c>
+      <c r="U143" t="n">
+        <v>86.54970760233918</v>
+      </c>
+      <c r="V143" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W143" t="s">
+        <v>345</v>
+      </c>
+      <c r="X143" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -9647,8 +12467,38 @@
       <c r="M144" t="s">
         <v>4</v>
       </c>
-      <c r="N144">
-        <v>0</v>
+      <c r="N144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>346</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.3623699969373515</v>
+      </c>
+      <c r="R144" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>10.262196150171144</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.8735172423036671</v>
+      </c>
+      <c r="U144" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V144" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W144" t="s">
+        <v>347</v>
+      </c>
+      <c r="X144" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -9691,8 +12541,38 @@
       <c r="M145" t="s">
         <v>4</v>
       </c>
-      <c r="N145">
-        <v>0</v>
+      <c r="N145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O145" t="s">
+        <v>348</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.269279422655762</v>
+      </c>
+      <c r="R145" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>6.219565740667905</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.9347767870843839</v>
+      </c>
+      <c r="U145" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V145" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W145" t="s">
+        <v>349</v>
+      </c>
+      <c r="X145" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -9735,8 +12615,38 @@
       <c r="M146" t="s">
         <v>4</v>
       </c>
-      <c r="N146">
-        <v>0</v>
+      <c r="N146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>350</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0.2768775906018437</v>
+      </c>
+      <c r="R146" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S146" t="n">
+        <v>6.6856534416179345</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0.9336006324692192</v>
+      </c>
+      <c r="U146" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V146" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W146" t="s">
+        <v>351</v>
+      </c>
+      <c r="X146" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -9779,8 +12689,38 @@
       <c r="M147" t="s">
         <v>4</v>
       </c>
-      <c r="N147">
-        <v>0</v>
+      <c r="N147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>352</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.34240954610733176</v>
+      </c>
+      <c r="R147" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S147" t="n">
+        <v>8.42440325076546</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0.9369025078369811</v>
+      </c>
+      <c r="U147" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W147" t="s">
+        <v>353</v>
+      </c>
+      <c r="X147" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -9823,8 +12763,38 @@
       <c r="M148" t="s">
         <v>4</v>
       </c>
-      <c r="N148">
-        <v>0</v>
+      <c r="N148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>354</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0.23312421577213804</v>
+      </c>
+      <c r="R148" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S148" t="n">
+        <v>3.1499527377317555</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0.972336832824319</v>
+      </c>
+      <c r="U148" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V148" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W148" t="s">
+        <v>355</v>
+      </c>
+      <c r="X148" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -9867,8 +12837,38 @@
       <c r="M149" t="s">
         <v>4</v>
       </c>
-      <c r="N149">
-        <v>0</v>
+      <c r="N149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>356</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.2098773446765474</v>
+      </c>
+      <c r="R149" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>4.262533939820461</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0.9695624541623215</v>
+      </c>
+      <c r="U149" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V149" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W149" t="s">
+        <v>357</v>
+      </c>
+      <c r="X149" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -9911,8 +12911,38 @@
       <c r="M150" t="s">
         <v>4</v>
       </c>
-      <c r="N150">
-        <v>0</v>
+      <c r="N150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>358</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.4456738595647902</v>
+      </c>
+      <c r="R150" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S150" t="n">
+        <v>4.799157529578124</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0.965828220367412</v>
+      </c>
+      <c r="U150" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V150" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W150" t="s">
+        <v>359</v>
+      </c>
+      <c r="X150" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -9955,8 +12985,38 @@
       <c r="M151" t="s">
         <v>4</v>
       </c>
-      <c r="N151">
-        <v>0</v>
+      <c r="N151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>360</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.23578998934364392</v>
+      </c>
+      <c r="R151" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>5.156188782039898</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0.9595086082306289</v>
+      </c>
+      <c r="U151" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V151" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W151" t="s">
+        <v>361</v>
+      </c>
+      <c r="X151" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -9999,8 +13059,38 @@
       <c r="M152" t="s">
         <v>4</v>
       </c>
-      <c r="N152">
-        <v>0</v>
+      <c r="N152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>362</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.2283433573991953</v>
+      </c>
+      <c r="R152" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5.542518424517162</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0.9548026623905206</v>
+      </c>
+      <c r="U152" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V152" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W152" t="s">
+        <v>363</v>
+      </c>
+      <c r="X152" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -10043,8 +13133,38 @@
       <c r="M153" t="s">
         <v>4</v>
       </c>
-      <c r="N153">
-        <v>0</v>
+      <c r="N153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O153" t="s">
+        <v>364</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0.20520907387995102</v>
+      </c>
+      <c r="R153" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>5.332365880657644</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0.9545079320408507</v>
+      </c>
+      <c r="U153" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V153" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W153" t="s">
+        <v>365</v>
+      </c>
+      <c r="X153" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -10087,8 +13207,38 @@
       <c r="M154" t="s">
         <v>4</v>
       </c>
-      <c r="N154">
-        <v>0</v>
+      <c r="N154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>366</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.2633446181390724</v>
+      </c>
+      <c r="R154" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7.2108245888366795</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0.9522184322243568</v>
+      </c>
+      <c r="U154" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V154" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W154" t="s">
+        <v>367</v>
+      </c>
+      <c r="X154" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -10131,8 +13281,38 @@
       <c r="M155" t="s">
         <v>4</v>
       </c>
-      <c r="N155">
-        <v>0</v>
+      <c r="N155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>368</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.20027749201862477</v>
+      </c>
+      <c r="R155" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.63180690889101</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0.981136125715986</v>
+      </c>
+      <c r="U155" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V155" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W155" t="s">
+        <v>369</v>
+      </c>
+      <c r="X155" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -10175,8 +13355,38 @@
       <c r="M156" t="s">
         <v>4</v>
       </c>
-      <c r="N156">
-        <v>0</v>
+      <c r="N156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O156" t="s">
+        <v>370</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.24991101513292335</v>
+      </c>
+      <c r="R156" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S156" t="n">
+        <v>2.785971774618822</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0.9800670081214492</v>
+      </c>
+      <c r="U156" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V156" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W156" t="s">
+        <v>371</v>
+      </c>
+      <c r="X156" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -10219,8 +13429,38 @@
       <c r="M157" t="s">
         <v>4</v>
       </c>
-      <c r="N157">
-        <v>0</v>
+      <c r="N157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O157" t="s">
+        <v>372</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0.5463504230322265</v>
+      </c>
+      <c r="R157" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5.902211145053074</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0.9284672511791083</v>
+      </c>
+      <c r="U157" t="n">
+        <v>92.39766081871345</v>
+      </c>
+      <c r="V157" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W157" t="s">
+        <v>373</v>
+      </c>
+      <c r="X157" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -10263,8 +13503,38 @@
       <c r="M158" t="s">
         <v>4</v>
       </c>
-      <c r="N158">
-        <v>0</v>
+      <c r="N158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>374</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.15203972908904184</v>
+      </c>
+      <c r="R158" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1.6476370634685016</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0.9887048882699423</v>
+      </c>
+      <c r="U158" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V158" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W158" t="s">
+        <v>375</v>
+      </c>
+      <c r="X158" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -10307,8 +13577,38 @@
       <c r="M159" t="s">
         <v>4</v>
       </c>
-      <c r="N159">
-        <v>0</v>
+      <c r="N159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>376</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0.25216171822650324</v>
+      </c>
+      <c r="R159" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>4.814557576209619</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0.9708306228414232</v>
+      </c>
+      <c r="U159" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V159" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W159" t="s">
+        <v>377</v>
+      </c>
+      <c r="X159" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -10351,8 +13651,38 @@
       <c r="M160" t="s">
         <v>4</v>
       </c>
-      <c r="N160">
-        <v>0</v>
+      <c r="N160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>378</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.17729783122143417</v>
+      </c>
+      <c r="R160" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.278767014450438</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0.9715219919704071</v>
+      </c>
+      <c r="U160" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V160" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W160" t="s">
+        <v>379</v>
+      </c>
+      <c r="X160" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -10395,8 +13725,38 @@
       <c r="M161" t="s">
         <v>4</v>
       </c>
-      <c r="N161">
-        <v>0</v>
+      <c r="N161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>380</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0.27189760108138294</v>
+      </c>
+      <c r="R161" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>3.5964390260944317</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0.9736373046583584</v>
+      </c>
+      <c r="U161" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V161" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W161" t="s">
+        <v>381</v>
+      </c>
+      <c r="X161" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -10439,8 +13799,38 @@
       <c r="M162" t="s">
         <v>4</v>
       </c>
-      <c r="N162">
-        <v>0</v>
+      <c r="N162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>382</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.18733851822426573</v>
+      </c>
+      <c r="R162" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>3.0571625693372546</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0.9761858754932511</v>
+      </c>
+      <c r="U162" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V162" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W162" t="s">
+        <v>383</v>
+      </c>
+      <c r="X162" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -10483,8 +13873,38 @@
       <c r="M163" t="s">
         <v>4</v>
       </c>
-      <c r="N163">
-        <v>0</v>
+      <c r="N163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>384</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.25827518664289073</v>
+      </c>
+      <c r="R163" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>3.7602091212544417</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0.9668152684465126</v>
+      </c>
+      <c r="U163" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V163" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W163" t="s">
+        <v>385</v>
+      </c>
+      <c r="X163" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -10527,8 +13947,38 @@
       <c r="M164" t="s">
         <v>4</v>
       </c>
-      <c r="N164">
-        <v>0</v>
+      <c r="N164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>386</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0.5406095733082861</v>
+      </c>
+      <c r="R164" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>6.309383285373017</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0.9369773604272518</v>
+      </c>
+      <c r="U164" t="n">
+        <v>90.05847953216374</v>
+      </c>
+      <c r="V164" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W164" t="s">
+        <v>387</v>
+      </c>
+      <c r="X164" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -10571,8 +14021,38 @@
       <c r="M165" t="s">
         <v>4</v>
       </c>
-      <c r="N165">
-        <v>0</v>
+      <c r="N165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>388</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0.3453443754760386</v>
+      </c>
+      <c r="R165" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S165" t="n">
+        <v>10.46218786958991</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0.9044546563116016</v>
+      </c>
+      <c r="U165" t="n">
+        <v>94.15204678362574</v>
+      </c>
+      <c r="V165" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W165" t="s">
+        <v>389</v>
+      </c>
+      <c r="X165" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -10615,8 +14095,38 @@
       <c r="M166" t="s">
         <v>4</v>
       </c>
-      <c r="N166">
-        <v>0</v>
+      <c r="N166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>390</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0.3334966540459501</v>
+      </c>
+      <c r="R166" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S166" t="n">
+        <v>5.232708085733558</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0.9557066986490664</v>
+      </c>
+      <c r="U166" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V166" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W166" t="s">
+        <v>391</v>
+      </c>
+      <c r="X166" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -10659,8 +14169,38 @@
       <c r="M167" t="s">
         <v>4</v>
       </c>
-      <c r="N167">
-        <v>0</v>
+      <c r="N167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>392</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0.36097698832482195</v>
+      </c>
+      <c r="R167" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S167" t="n">
+        <v>14.290241199005473</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0.9087142495046797</v>
+      </c>
+      <c r="U167" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V167" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W167" t="s">
+        <v>393</v>
+      </c>
+      <c r="X167" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -10703,8 +14243,38 @@
       <c r="M168" t="s">
         <v>4</v>
       </c>
-      <c r="N168">
-        <v>0</v>
+      <c r="N168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>394</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0.3267673095542367</v>
+      </c>
+      <c r="R168" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S168" t="n">
+        <v>9.195314654208927</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0.946802454639198</v>
+      </c>
+      <c r="U168" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V168" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W168" t="s">
+        <v>395</v>
+      </c>
+      <c r="X168" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -10747,8 +14317,38 @@
       <c r="M169" t="s">
         <v>4</v>
       </c>
-      <c r="N169">
-        <v>0</v>
+      <c r="N169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>396</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0.33072001769935966</v>
+      </c>
+      <c r="R169" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S169" t="n">
+        <v>6.089935898973181</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0.9420506178764196</v>
+      </c>
+      <c r="U169" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V169" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W169" t="s">
+        <v>397</v>
+      </c>
+      <c r="X169" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -10791,8 +14391,38 @@
       <c r="M170" t="s">
         <v>4</v>
       </c>
-      <c r="N170">
-        <v>0</v>
+      <c r="N170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>398</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0.25120654676889664</v>
+      </c>
+      <c r="R170" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S170" t="n">
+        <v>6.022283890351169</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0.9442423127590758</v>
+      </c>
+      <c r="U170" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V170" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W170" t="s">
+        <v>399</v>
+      </c>
+      <c r="X170" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -10835,8 +14465,38 @@
       <c r="M171" t="s">
         <v>4</v>
       </c>
-      <c r="N171">
-        <v>0</v>
+      <c r="N171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>401</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0.5894373174100593</v>
+      </c>
+      <c r="R171" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>7.816493309649504</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0.9431152514773372</v>
+      </c>
+      <c r="U171" t="n">
+        <v>91.81286549707602</v>
+      </c>
+      <c r="V171" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W171" t="s">
+        <v>402</v>
+      </c>
+      <c r="X171" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -10879,8 +14539,38 @@
       <c r="M172" t="s">
         <v>4</v>
       </c>
-      <c r="N172">
-        <v>0</v>
+      <c r="N172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>403</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0.2520736024910626</v>
+      </c>
+      <c r="R172" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>7.088358964302386</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0.9395732440486784</v>
+      </c>
+      <c r="U172" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V172" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W172" t="s">
+        <v>404</v>
+      </c>
+      <c r="X172" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -10923,8 +14613,38 @@
       <c r="M173" t="s">
         <v>4</v>
       </c>
-      <c r="N173">
-        <v>0</v>
+      <c r="N173" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>405</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0.3024592206553116</v>
+      </c>
+      <c r="R173" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>11.193904522549829</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0.9140537197568163</v>
+      </c>
+      <c r="U173" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V173" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W173" t="s">
+        <v>406</v>
+      </c>
+      <c r="X173" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -10967,8 +14687,38 @@
       <c r="M174" t="s">
         <v>4</v>
       </c>
-      <c r="N174">
-        <v>0</v>
+      <c r="N174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O174" t="s">
+        <v>407</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0.2464621636463722</v>
+      </c>
+      <c r="R174" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>4.894559208810553</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0.9582969515898867</v>
+      </c>
+      <c r="U174" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V174" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W174" t="s">
+        <v>408</v>
+      </c>
+      <c r="X174" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -11011,8 +14761,38 @@
       <c r="M175" t="s">
         <v>4</v>
       </c>
-      <c r="N175">
-        <v>0</v>
+      <c r="N175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>409</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0.3178024483706192</v>
+      </c>
+      <c r="R175" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>8.876450836694389</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0.9243710013801089</v>
+      </c>
+      <c r="U175" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V175" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W175" t="s">
+        <v>410</v>
+      </c>
+      <c r="X175" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -11055,8 +14835,38 @@
       <c r="M176" t="s">
         <v>4</v>
       </c>
-      <c r="N176">
-        <v>0</v>
+      <c r="N176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>411</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0.25255529032542867</v>
+      </c>
+      <c r="R176" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S176" t="n">
+        <v>5.360455615938939</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0.9582443995227019</v>
+      </c>
+      <c r="U176" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V176" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W176" t="s">
+        <v>412</v>
+      </c>
+      <c r="X176" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
@@ -11099,8 +14909,38 @@
       <c r="M177" t="s">
         <v>4</v>
       </c>
-      <c r="N177">
-        <v>0</v>
+      <c r="N177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>413</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0.20315248623878368</v>
+      </c>
+      <c r="R177" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S177" t="n">
+        <v>3.0370216594386608</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0.981526066750581</v>
+      </c>
+      <c r="U177" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V177" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W177" t="s">
+        <v>414</v>
+      </c>
+      <c r="X177" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -11143,8 +14983,38 @@
       <c r="M178" t="s">
         <v>4</v>
       </c>
-      <c r="N178">
-        <v>0</v>
+      <c r="N178" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>415</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0.4448749064863211</v>
+      </c>
+      <c r="R178" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>4.886715417042196</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0.962742920598278</v>
+      </c>
+      <c r="U178" t="n">
+        <v>94.15204678362574</v>
+      </c>
+      <c r="V178" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W178" t="s">
+        <v>416</v>
+      </c>
+      <c r="X178" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -11187,8 +15057,38 @@
       <c r="M179" t="s">
         <v>4</v>
       </c>
-      <c r="N179">
-        <v>0</v>
+      <c r="N179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>417</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0.2272899494533558</v>
+      </c>
+      <c r="R179" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>4.674195238241455</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0.9526659506181162</v>
+      </c>
+      <c r="U179" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V179" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W179" t="s">
+        <v>418</v>
+      </c>
+      <c r="X179" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -11231,8 +15131,38 @@
       <c r="M180" t="s">
         <v>4</v>
       </c>
-      <c r="N180">
-        <v>0</v>
+      <c r="N180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>419</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0.22287118507840198</v>
+      </c>
+      <c r="R180" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>5.558254375007397</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0.9573572571315683</v>
+      </c>
+      <c r="U180" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V180" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W180" t="s">
+        <v>420</v>
+      </c>
+      <c r="X180" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -11275,8 +15205,38 @@
       <c r="M181" t="s">
         <v>4</v>
       </c>
-      <c r="N181">
-        <v>0</v>
+      <c r="N181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>421</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0.19375532670575524</v>
+      </c>
+      <c r="R181" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>5.744992468905502</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0.9501033715520105</v>
+      </c>
+      <c r="U181" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V181" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W181" t="s">
+        <v>422</v>
+      </c>
+      <c r="X181" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -11319,8 +15279,38 @@
       <c r="M182" t="s">
         <v>4</v>
       </c>
-      <c r="N182">
-        <v>0</v>
+      <c r="N182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O182" t="s">
+        <v>423</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.2554140533810152</v>
+      </c>
+      <c r="R182" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S182" t="n">
+        <v>5.761970875508319</v>
+      </c>
+      <c r="T182" t="n">
+        <v>0.9672996410835619</v>
+      </c>
+      <c r="U182" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V182" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W182" t="s">
+        <v>424</v>
+      </c>
+      <c r="X182" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -11363,8 +15353,38 @@
       <c r="M183" t="s">
         <v>4</v>
       </c>
-      <c r="N183">
-        <v>0</v>
+      <c r="N183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>425</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0.20024097297601706</v>
+      </c>
+      <c r="R183" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S183" t="n">
+        <v>4.689379296429943</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0.9616340866063283</v>
+      </c>
+      <c r="U183" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V183" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W183" t="s">
+        <v>426</v>
+      </c>
+      <c r="X183" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -11407,8 +15427,38 @@
       <c r="M184" t="s">
         <v>4</v>
       </c>
-      <c r="N184">
-        <v>0</v>
+      <c r="N184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>427</v>
+      </c>
+      <c r="P184" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.17597599592488855</v>
+      </c>
+      <c r="R184" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>2.7415110739016915</v>
+      </c>
+      <c r="T184" t="n">
+        <v>0.9811491148047167</v>
+      </c>
+      <c r="U184" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V184" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W184" t="s">
+        <v>428</v>
+      </c>
+      <c r="X184" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -11451,8 +15501,38 @@
       <c r="M185" t="s">
         <v>4</v>
       </c>
-      <c r="N185">
-        <v>0</v>
+      <c r="N185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O185" t="s">
+        <v>429</v>
+      </c>
+      <c r="P185" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0.5064945281742741</v>
+      </c>
+      <c r="R185" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>7.980996315377126</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0.9385258355518646</v>
+      </c>
+      <c r="U185" t="n">
+        <v>87.13450292397661</v>
+      </c>
+      <c r="V185" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W185" t="s">
+        <v>430</v>
+      </c>
+      <c r="X185" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -11495,8 +15575,38 @@
       <c r="M186" t="s">
         <v>4</v>
       </c>
-      <c r="N186">
-        <v>0</v>
+      <c r="N186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>431</v>
+      </c>
+      <c r="P186" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0.15528991660624847</v>
+      </c>
+      <c r="R186" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S186" t="n">
+        <v>2.2966026730529285</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0.9755432258136915</v>
+      </c>
+      <c r="U186" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V186" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W186" t="s">
+        <v>432</v>
+      </c>
+      <c r="X186" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -11541,6 +15651,27 @@
       </c>
       <c r="N187">
         <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>435</v>
+      </c>
+      <c r="P187" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0.25604501664938617</v>
+      </c>
+      <c r="R187" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>3.1992896689729364</v>
+      </c>
+      <c r="T187" t="n">
+        <v>0.9696732075909299</v>
+      </c>
+      <c r="W187" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">

--- a/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcadriano_p2_tsne.xlsx
+++ b/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcadriano_p2_tsne.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11188" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11722" uniqueCount="799">
   <si>
     <t>WorkFolder</t>
   </si>
@@ -1346,6 +1346,1092 @@
   <si>
     <t>T3_Supination and pronation_t-SNE_FS-IF_17-Apr-2017_MI_2000_LR_400_PE_28</t>
   </si>
+  <si>
+    <t>17-Apr-2017 12:04:40</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 12:06:54</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 12:58:28</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 13:18:55</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 13:20:55</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 14:31:28</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 14:33:26</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 15:13:32</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 15:15:28</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 16:24:46</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_17-Apr-2017_MI_2000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 16:48:02</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_3000_LR_400_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 16:50:11</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 18:18:34</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 18:23:24</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 19:51:52</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 19:56:07</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 21:46:37</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 22:57:10</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 22:58:57</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 23:52:33</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 23:54:30</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_17-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 00:33:46</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 00:35:53</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 01:25:34</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 01:58:51</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 02:00:45</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 02:40:15</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 02:42:36</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 03:14:54</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 03:16:59</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 04:07:51</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 04:27:49</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 04:29:38</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 05:39:57</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 05:41:59</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 06:21:40</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 06:23:31</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 07:15:15</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_18-Apr-2017_MI_3000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 07:39:12</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_4000_LR_400_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 07:42:01</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 09:08:19</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 09:12:48</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 10:41:27</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 10:46:03</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 12:20:55</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 13:29:59</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 13:31:54</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 14:24:24</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 14:26:26</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 15:06:50</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 15:09:11</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 16:03:07</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 16:40:03</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 16:42:01</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 17:27:06</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 17:29:23</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 18:02:43</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 18:04:38</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 18:50:21</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 19:13:42</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 19:15:33</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 20:25:10</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 20:27:12</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 21:18:41</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 21:20:36</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 22:14:30</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_18-Apr-2017_MI_4000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 22:47:11</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_18-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_5000_LR_400_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 22:49:14</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_18-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 00:04:08</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 00:08:34</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 01:37:07</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 01:41:26</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 03:39:20</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 04:47:38</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 04:49:30</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 05:41:38</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 05:44:11</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 06:24:11</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 06:26:20</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 07:17:41</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 07:51:13</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 07:53:06</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 08:38:15</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 08:40:34</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 09:14:49</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 09:16:59</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 10:08:28</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 10:28:51</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 10:30:41</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 11:39:33</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 11:42:36</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 12:23:03</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 12:24:58</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 13:33:40</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_19-Apr-2017_MI_5000_LR_400_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 14:06:06</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_1000_LR_500_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 14:08:24</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 15:35:36</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 15:40:22</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 17:13:50</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 17:17:55</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 18:57:10</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 20:07:43</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 20:09:33</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 21:03:55</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 21:06:06</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 21:41:12</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 21:43:15</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 22:55:52</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 23:32:51</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 23:34:42</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_19-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 00:20:38</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 00:23:01</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 00:56:46</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 00:58:42</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 01:43:33</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 02:05:41</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 02:07:27</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 03:01:07</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 03:03:06</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 03:38:16</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 03:40:17</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 04:50:27</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_20-Apr-2017_MI_1000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 05:27:15</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_2000_LR_500_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 05:29:49</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 06:43:57</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 06:48:40</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 08:18:07</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 08:22:27</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 10:02:59</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 10:55:36</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 10:57:25</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 11:49:27</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 11:51:50</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 12:31:14</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 12:33:32</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 13:26:54</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:02:59</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:04:53</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:49:58</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:52:10</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 15:32:29</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 15:34:33</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 16:26:09</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 16:49:28</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 16:51:16</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 17:59:55</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 18:01:55</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 18:41:58</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 18:43:58</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 20:01:45</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_20-Apr-2017_MI_2000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 20:25:25</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_20-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_3000_LR_500_PE_28.xlsx</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 20:27:28</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_20-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 21:56:34</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_20-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 22:01:12</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_20-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 23:28:29</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_20-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 23:33:11</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_20-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 01:23:58</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 02:34:30</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 02:36:38</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 03:31:27</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 03:33:44</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 04:14:11</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 04:16:44</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 05:11:02</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 05:46:56</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 05:49:24</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 06:35:32</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 06:38:13</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 07:11:39</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 07:14:09</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 08:00:20</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 08:21:21</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 08:23:34</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 09:31:59</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 09:34:31</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 10:14:39</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 10:17:05</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 11:35:17</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_21-Apr-2017_MI_3000_LR_500_PE_28</t>
+  </si>
 </sst>
 </file>
 
@@ -15649,8 +16735,8 @@
       <c r="M187" t="s">
         <v>4</v>
       </c>
-      <c r="N187">
-        <v>0</v>
+      <c r="N187" t="n">
+        <v>1.0</v>
       </c>
       <c r="O187" t="s">
         <v>435</v>
@@ -15662,16 +16748,25 @@
         <v>0.25604501664938617</v>
       </c>
       <c r="R187" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="S187" t="n">
-        <v>3.1992896689729364</v>
+        <v>4.501771729785664</v>
       </c>
       <c r="T187" t="n">
-        <v>0.9696732075909299</v>
+        <v>0.9613113614688503</v>
+      </c>
+      <c r="U187" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>68.42105263157896</v>
       </c>
       <c r="W187" t="s">
         <v>436</v>
+      </c>
+      <c r="X187" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -15714,8 +16809,38 @@
       <c r="M188" t="s">
         <v>4</v>
       </c>
-      <c r="N188">
-        <v>0</v>
+      <c r="N188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>437</v>
+      </c>
+      <c r="P188" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0.1498237640362916</v>
+      </c>
+      <c r="R188" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S188" t="n">
+        <v>2.2764269117534797</v>
+      </c>
+      <c r="T188" t="n">
+        <v>0.9789188380519492</v>
+      </c>
+      <c r="U188" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V188" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W188" t="s">
+        <v>438</v>
+      </c>
+      <c r="X188" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -15758,8 +16883,38 @@
       <c r="M189" t="s">
         <v>4</v>
       </c>
-      <c r="N189">
-        <v>0</v>
+      <c r="N189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>439</v>
+      </c>
+      <c r="P189" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0.2598246654558558</v>
+      </c>
+      <c r="R189" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>4.715989391773175</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0.9626079454982954</v>
+      </c>
+      <c r="U189" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V189" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W189" t="s">
+        <v>440</v>
+      </c>
+      <c r="X189" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
@@ -15802,8 +16957,38 @@
       <c r="M190" t="s">
         <v>4</v>
       </c>
-      <c r="N190">
-        <v>0</v>
+      <c r="N190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O190" t="s">
+        <v>441</v>
+      </c>
+      <c r="P190" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0.2400596162000106</v>
+      </c>
+      <c r="R190" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S190" t="n">
+        <v>5.559464921505026</v>
+      </c>
+      <c r="T190" t="n">
+        <v>0.9637089564775936</v>
+      </c>
+      <c r="U190" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V190" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W190" t="s">
+        <v>442</v>
+      </c>
+      <c r="X190" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -15846,8 +17031,38 @@
       <c r="M191" t="s">
         <v>4</v>
       </c>
-      <c r="N191">
-        <v>0</v>
+      <c r="N191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O191" t="s">
+        <v>443</v>
+      </c>
+      <c r="P191" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0.2979198003071595</v>
+      </c>
+      <c r="R191" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S191" t="n">
+        <v>5.018343772704169</v>
+      </c>
+      <c r="T191" t="n">
+        <v>0.9559866942678397</v>
+      </c>
+      <c r="U191" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V191" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W191" t="s">
+        <v>444</v>
+      </c>
+      <c r="X191" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -15890,8 +17105,38 @@
       <c r="M192" t="s">
         <v>4</v>
       </c>
-      <c r="N192">
-        <v>0</v>
+      <c r="N192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O192" t="s">
+        <v>445</v>
+      </c>
+      <c r="P192" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.4483328352285181</v>
+      </c>
+      <c r="R192" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S192" t="n">
+        <v>9.611946089622474</v>
+      </c>
+      <c r="T192" t="n">
+        <v>0.8897748907163231</v>
+      </c>
+      <c r="U192" t="n">
+        <v>91.81286549707602</v>
+      </c>
+      <c r="V192" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W192" t="s">
+        <v>446</v>
+      </c>
+      <c r="X192" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
@@ -15934,8 +17179,38 @@
       <c r="M193" t="s">
         <v>4</v>
       </c>
-      <c r="N193">
-        <v>0</v>
+      <c r="N193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>447</v>
+      </c>
+      <c r="P193" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0.3963991810713239</v>
+      </c>
+      <c r="R193" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S193" t="n">
+        <v>12.087507648263275</v>
+      </c>
+      <c r="T193" t="n">
+        <v>0.9243836180918137</v>
+      </c>
+      <c r="U193" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V193" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W193" t="s">
+        <v>448</v>
+      </c>
+      <c r="X193" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
@@ -15978,8 +17253,38 @@
       <c r="M194" t="s">
         <v>4</v>
       </c>
-      <c r="N194">
-        <v>0</v>
+      <c r="N194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O194" t="s">
+        <v>449</v>
+      </c>
+      <c r="P194" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0.32305477014241646</v>
+      </c>
+      <c r="R194" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S194" t="n">
+        <v>6.340259246826155</v>
+      </c>
+      <c r="T194" t="n">
+        <v>0.9312538794506485</v>
+      </c>
+      <c r="U194" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V194" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W194" t="s">
+        <v>450</v>
+      </c>
+      <c r="X194" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -16022,8 +17327,38 @@
       <c r="M195" t="s">
         <v>4</v>
       </c>
-      <c r="N195">
-        <v>0</v>
+      <c r="N195" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>451</v>
+      </c>
+      <c r="P195" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0.32502968759831496</v>
+      </c>
+      <c r="R195" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>8.439974705357745</v>
+      </c>
+      <c r="T195" t="n">
+        <v>0.9331684634270776</v>
+      </c>
+      <c r="U195" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V195" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W195" t="s">
+        <v>452</v>
+      </c>
+      <c r="X195" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -16066,8 +17401,38 @@
       <c r="M196" t="s">
         <v>4</v>
       </c>
-      <c r="N196">
-        <v>0</v>
+      <c r="N196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O196" t="s">
+        <v>453</v>
+      </c>
+      <c r="P196" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0.3071993165968596</v>
+      </c>
+      <c r="R196" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S196" t="n">
+        <v>3.165246629118308</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0.9751495056401623</v>
+      </c>
+      <c r="U196" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V196" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W196" t="s">
+        <v>454</v>
+      </c>
+      <c r="X196" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -16110,8 +17475,38 @@
       <c r="M197" t="s">
         <v>4</v>
       </c>
-      <c r="N197">
-        <v>0</v>
+      <c r="N197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O197" t="s">
+        <v>455</v>
+      </c>
+      <c r="P197" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0.30048217001845146</v>
+      </c>
+      <c r="R197" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S197" t="n">
+        <v>8.589191881137577</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0.9202187533889687</v>
+      </c>
+      <c r="U197" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V197" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W197" t="s">
+        <v>456</v>
+      </c>
+      <c r="X197" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
@@ -16154,8 +17549,38 @@
       <c r="M198" t="s">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>0</v>
+      <c r="N198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O198" t="s">
+        <v>457</v>
+      </c>
+      <c r="P198" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0.2613018074618374</v>
+      </c>
+      <c r="R198" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S198" t="n">
+        <v>7.564601473014301</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0.9107100493963121</v>
+      </c>
+      <c r="U198" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V198" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W198" t="s">
+        <v>458</v>
+      </c>
+      <c r="X198" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -16198,8 +17623,38 @@
       <c r="M199" t="s">
         <v>4</v>
       </c>
-      <c r="N199">
-        <v>0</v>
+      <c r="N199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O199" t="s">
+        <v>460</v>
+      </c>
+      <c r="P199" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0.6391761112328638</v>
+      </c>
+      <c r="R199" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S199" t="n">
+        <v>8.116270016573552</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0.9273950118934415</v>
+      </c>
+      <c r="U199" t="n">
+        <v>90.64327485380117</v>
+      </c>
+      <c r="V199" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W199" t="s">
+        <v>461</v>
+      </c>
+      <c r="X199" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -16242,8 +17697,38 @@
       <c r="M200" t="s">
         <v>4</v>
       </c>
-      <c r="N200">
-        <v>0</v>
+      <c r="N200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>462</v>
+      </c>
+      <c r="P200" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.270655646551905</v>
+      </c>
+      <c r="R200" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S200" t="n">
+        <v>6.792344029093785</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0.9333964177600513</v>
+      </c>
+      <c r="U200" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V200" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W200" t="s">
+        <v>463</v>
+      </c>
+      <c r="X200" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -16286,8 +17771,38 @@
       <c r="M201" t="s">
         <v>4</v>
       </c>
-      <c r="N201">
-        <v>0</v>
+      <c r="N201" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O201" t="s">
+        <v>464</v>
+      </c>
+      <c r="P201" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0.2662305506366991</v>
+      </c>
+      <c r="R201" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S201" t="n">
+        <v>6.594963391405624</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0.964125039149897</v>
+      </c>
+      <c r="U201" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V201" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W201" t="s">
+        <v>465</v>
+      </c>
+      <c r="X201" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -16330,8 +17845,38 @@
       <c r="M202" t="s">
         <v>4</v>
       </c>
-      <c r="N202">
-        <v>0</v>
+      <c r="N202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O202" t="s">
+        <v>466</v>
+      </c>
+      <c r="P202" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0.2754420803154254</v>
+      </c>
+      <c r="R202" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S202" t="n">
+        <v>3.60545062856582</v>
+      </c>
+      <c r="T202" t="n">
+        <v>0.955251991312032</v>
+      </c>
+      <c r="U202" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V202" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W202" t="s">
+        <v>467</v>
+      </c>
+      <c r="X202" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
@@ -16374,8 +17919,38 @@
       <c r="M203" t="s">
         <v>4</v>
       </c>
-      <c r="N203">
-        <v>0</v>
+      <c r="N203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O203" t="s">
+        <v>468</v>
+      </c>
+      <c r="P203" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.2790246079757477</v>
+      </c>
+      <c r="R203" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S203" t="n">
+        <v>6.698257295015302</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0.933415972707004</v>
+      </c>
+      <c r="U203" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V203" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W203" t="s">
+        <v>469</v>
+      </c>
+      <c r="X203" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
@@ -16418,8 +17993,38 @@
       <c r="M204" t="s">
         <v>4</v>
       </c>
-      <c r="N204">
-        <v>0</v>
+      <c r="N204" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O204" t="s">
+        <v>470</v>
+      </c>
+      <c r="P204" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0.2630744983294129</v>
+      </c>
+      <c r="R204" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S204" t="n">
+        <v>11.577655092095537</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0.9127067370674266</v>
+      </c>
+      <c r="U204" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V204" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W204" t="s">
+        <v>471</v>
+      </c>
+      <c r="X204" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -16462,8 +18067,38 @@
       <c r="M205" t="s">
         <v>4</v>
       </c>
-      <c r="N205">
-        <v>0</v>
+      <c r="N205" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O205" t="s">
+        <v>472</v>
+      </c>
+      <c r="P205" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0.18848960233856715</v>
+      </c>
+      <c r="R205" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S205" t="n">
+        <v>2.644609863265436</v>
+      </c>
+      <c r="T205" t="n">
+        <v>0.9837162622528316</v>
+      </c>
+      <c r="U205" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V205" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W205" t="s">
+        <v>473</v>
+      </c>
+      <c r="X205" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -16506,8 +18141,38 @@
       <c r="M206" t="s">
         <v>4</v>
       </c>
-      <c r="N206">
-        <v>0</v>
+      <c r="N206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O206" t="s">
+        <v>474</v>
+      </c>
+      <c r="P206" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0.4765367821130049</v>
+      </c>
+      <c r="R206" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S206" t="n">
+        <v>10.20663932631836</v>
+      </c>
+      <c r="T206" t="n">
+        <v>0.9100254472456982</v>
+      </c>
+      <c r="U206" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V206" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W206" t="s">
+        <v>475</v>
+      </c>
+      <c r="X206" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
@@ -16550,8 +18215,38 @@
       <c r="M207" t="s">
         <v>4</v>
       </c>
-      <c r="N207">
-        <v>0</v>
+      <c r="N207" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O207" t="s">
+        <v>476</v>
+      </c>
+      <c r="P207" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0.23538324081208017</v>
+      </c>
+      <c r="R207" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S207" t="n">
+        <v>5.229068598286113</v>
+      </c>
+      <c r="T207" t="n">
+        <v>0.9566729703661647</v>
+      </c>
+      <c r="U207" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V207" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W207" t="s">
+        <v>477</v>
+      </c>
+      <c r="X207" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
@@ -16594,8 +18289,38 @@
       <c r="M208" t="s">
         <v>4</v>
       </c>
-      <c r="N208">
-        <v>0</v>
+      <c r="N208" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O208" t="s">
+        <v>478</v>
+      </c>
+      <c r="P208" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0.25513275487726794</v>
+      </c>
+      <c r="R208" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4.821686151027997</v>
+      </c>
+      <c r="T208" t="n">
+        <v>0.979206589799151</v>
+      </c>
+      <c r="U208" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V208" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W208" t="s">
+        <v>479</v>
+      </c>
+      <c r="X208" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -16638,8 +18363,38 @@
       <c r="M209" t="s">
         <v>4</v>
       </c>
-      <c r="N209">
-        <v>0</v>
+      <c r="N209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O209" t="s">
+        <v>480</v>
+      </c>
+      <c r="P209" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0.19760331036528278</v>
+      </c>
+      <c r="R209" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S209" t="n">
+        <v>4.721287232380557</v>
+      </c>
+      <c r="T209" t="n">
+        <v>0.9660198084667242</v>
+      </c>
+      <c r="U209" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V209" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W209" t="s">
+        <v>481</v>
+      </c>
+      <c r="X209" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -16682,8 +18437,38 @@
       <c r="M210" t="s">
         <v>4</v>
       </c>
-      <c r="N210">
-        <v>0</v>
+      <c r="N210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O210" t="s">
+        <v>482</v>
+      </c>
+      <c r="P210" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0.24236109198812805</v>
+      </c>
+      <c r="R210" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S210" t="n">
+        <v>7.310993074954318</v>
+      </c>
+      <c r="T210" t="n">
+        <v>0.9487921149612443</v>
+      </c>
+      <c r="U210" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V210" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W210" t="s">
+        <v>483</v>
+      </c>
+      <c r="X210" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -16726,8 +18511,38 @@
       <c r="M211" t="s">
         <v>4</v>
       </c>
-      <c r="N211">
-        <v>0</v>
+      <c r="N211" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>484</v>
+      </c>
+      <c r="P211" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0.20503489559289356</v>
+      </c>
+      <c r="R211" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2.684232283105275</v>
+      </c>
+      <c r="T211" t="n">
+        <v>0.976985537577375</v>
+      </c>
+      <c r="U211" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V211" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W211" t="s">
+        <v>485</v>
+      </c>
+      <c r="X211" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
@@ -16770,8 +18585,38 @@
       <c r="M212" t="s">
         <v>4</v>
       </c>
-      <c r="N212">
-        <v>0</v>
+      <c r="N212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O212" t="s">
+        <v>486</v>
+      </c>
+      <c r="P212" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0.1632725307760392</v>
+      </c>
+      <c r="R212" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S212" t="n">
+        <v>1.9347844265973175</v>
+      </c>
+      <c r="T212" t="n">
+        <v>0.9899702643805931</v>
+      </c>
+      <c r="U212" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V212" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W212" t="s">
+        <v>487</v>
+      </c>
+      <c r="X212" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -16814,8 +18659,38 @@
       <c r="M213" t="s">
         <v>4</v>
       </c>
-      <c r="N213">
-        <v>0</v>
+      <c r="N213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O213" t="s">
+        <v>488</v>
+      </c>
+      <c r="P213" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0.5209449180472632</v>
+      </c>
+      <c r="R213" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S213" t="n">
+        <v>8.108757967243774</v>
+      </c>
+      <c r="T213" t="n">
+        <v>0.9235391909937914</v>
+      </c>
+      <c r="U213" t="n">
+        <v>83.04093567251462</v>
+      </c>
+      <c r="V213" t="n">
+        <v>42.10526315789475</v>
+      </c>
+      <c r="W213" t="s">
+        <v>489</v>
+      </c>
+      <c r="X213" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
@@ -16858,8 +18733,38 @@
       <c r="M214" t="s">
         <v>4</v>
       </c>
-      <c r="N214">
-        <v>0</v>
+      <c r="N214" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>490</v>
+      </c>
+      <c r="P214" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0.154046684495885</v>
+      </c>
+      <c r="R214" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S214" t="n">
+        <v>4.053586110739178</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0.9710008140781939</v>
+      </c>
+      <c r="U214" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V214" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W214" t="s">
+        <v>491</v>
+      </c>
+      <c r="X214" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -16902,8 +18807,38 @@
       <c r="M215" t="s">
         <v>4</v>
       </c>
-      <c r="N215">
-        <v>0</v>
+      <c r="N215" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O215" t="s">
+        <v>492</v>
+      </c>
+      <c r="P215" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0.27424316125988746</v>
+      </c>
+      <c r="R215" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S215" t="n">
+        <v>5.558778324898973</v>
+      </c>
+      <c r="T215" t="n">
+        <v>0.9501241276919198</v>
+      </c>
+      <c r="U215" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V215" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W215" t="s">
+        <v>493</v>
+      </c>
+      <c r="X215" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -16946,8 +18881,38 @@
       <c r="M216" t="s">
         <v>4</v>
       </c>
-      <c r="N216">
-        <v>0</v>
+      <c r="N216" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O216" t="s">
+        <v>494</v>
+      </c>
+      <c r="P216" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0.17943801906660006</v>
+      </c>
+      <c r="R216" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S216" t="n">
+        <v>4.736004566096867</v>
+      </c>
+      <c r="T216" t="n">
+        <v>0.95225516449659</v>
+      </c>
+      <c r="U216" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V216" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W216" t="s">
+        <v>495</v>
+      </c>
+      <c r="X216" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
@@ -16990,8 +18955,38 @@
       <c r="M217" t="s">
         <v>4</v>
       </c>
-      <c r="N217">
-        <v>0</v>
+      <c r="N217" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O217" t="s">
+        <v>496</v>
+      </c>
+      <c r="P217" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0.25776520399659475</v>
+      </c>
+      <c r="R217" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4.186965437420642</v>
+      </c>
+      <c r="T217" t="n">
+        <v>0.966912200709049</v>
+      </c>
+      <c r="U217" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V217" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W217" t="s">
+        <v>497</v>
+      </c>
+      <c r="X217" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
@@ -17034,8 +19029,38 @@
       <c r="M218" t="s">
         <v>4</v>
       </c>
-      <c r="N218">
-        <v>0</v>
+      <c r="N218" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>498</v>
+      </c>
+      <c r="P218" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0.21821866404416745</v>
+      </c>
+      <c r="R218" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S218" t="n">
+        <v>3.270174798582371</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0.9723423563610477</v>
+      </c>
+      <c r="U218" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V218" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W218" t="s">
+        <v>499</v>
+      </c>
+      <c r="X218" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -17078,8 +19103,38 @@
       <c r="M219" t="s">
         <v>4</v>
       </c>
-      <c r="N219">
-        <v>0</v>
+      <c r="N219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O219" t="s">
+        <v>500</v>
+      </c>
+      <c r="P219" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0.3044666343584215</v>
+      </c>
+      <c r="R219" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S219" t="n">
+        <v>15.61082630586546</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0.8822916471756641</v>
+      </c>
+      <c r="U219" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V219" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W219" t="s">
+        <v>501</v>
+      </c>
+      <c r="X219" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -17122,8 +19177,38 @@
       <c r="M220" t="s">
         <v>4</v>
       </c>
-      <c r="N220">
-        <v>0</v>
+      <c r="N220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O220" t="s">
+        <v>502</v>
+      </c>
+      <c r="P220" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0.4882232769081458</v>
+      </c>
+      <c r="R220" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S220" t="n">
+        <v>9.500541101318404</v>
+      </c>
+      <c r="T220" t="n">
+        <v>0.9187259352091032</v>
+      </c>
+      <c r="U220" t="n">
+        <v>90.64327485380117</v>
+      </c>
+      <c r="V220" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W220" t="s">
+        <v>503</v>
+      </c>
+      <c r="X220" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -17166,8 +19251,38 @@
       <c r="M221" t="s">
         <v>4</v>
       </c>
-      <c r="N221">
-        <v>0</v>
+      <c r="N221" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>504</v>
+      </c>
+      <c r="P221" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0.44121256786649177</v>
+      </c>
+      <c r="R221" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S221" t="n">
+        <v>9.39363644430137</v>
+      </c>
+      <c r="T221" t="n">
+        <v>0.9194778507402592</v>
+      </c>
+      <c r="U221" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V221" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W221" t="s">
+        <v>505</v>
+      </c>
+      <c r="X221" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
@@ -17210,8 +19325,38 @@
       <c r="M222" t="s">
         <v>4</v>
       </c>
-      <c r="N222">
-        <v>0</v>
+      <c r="N222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O222" t="s">
+        <v>506</v>
+      </c>
+      <c r="P222" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0.35939690934565505</v>
+      </c>
+      <c r="R222" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S222" t="n">
+        <v>7.88132110691587</v>
+      </c>
+      <c r="T222" t="n">
+        <v>0.9506820177673205</v>
+      </c>
+      <c r="U222" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V222" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W222" t="s">
+        <v>507</v>
+      </c>
+      <c r="X222" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -17254,8 +19399,38 @@
       <c r="M223" t="s">
         <v>4</v>
       </c>
-      <c r="N223">
-        <v>0</v>
+      <c r="N223" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O223" t="s">
+        <v>508</v>
+      </c>
+      <c r="P223" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0.40787197486294247</v>
+      </c>
+      <c r="R223" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>10.33779097694579</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0.8599275408145735</v>
+      </c>
+      <c r="U223" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V223" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W223" t="s">
+        <v>509</v>
+      </c>
+      <c r="X223" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -17298,8 +19473,38 @@
       <c r="M224" t="s">
         <v>4</v>
       </c>
-      <c r="N224">
-        <v>0</v>
+      <c r="N224" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O224" t="s">
+        <v>510</v>
+      </c>
+      <c r="P224" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0.3761057146644813</v>
+      </c>
+      <c r="R224" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S224" t="n">
+        <v>5.819251108368482</v>
+      </c>
+      <c r="T224" t="n">
+        <v>0.9592821926082234</v>
+      </c>
+      <c r="U224" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V224" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W224" t="s">
+        <v>511</v>
+      </c>
+      <c r="X224" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -17342,8 +19547,38 @@
       <c r="M225" t="s">
         <v>4</v>
       </c>
-      <c r="N225">
-        <v>0</v>
+      <c r="N225" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>512</v>
+      </c>
+      <c r="P225" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0.32553981306098123</v>
+      </c>
+      <c r="R225" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S225" t="n">
+        <v>8.389369545408874</v>
+      </c>
+      <c r="T225" t="n">
+        <v>0.90215032454125</v>
+      </c>
+      <c r="U225" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V225" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W225" t="s">
+        <v>513</v>
+      </c>
+      <c r="X225" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
@@ -17386,8 +19621,38 @@
       <c r="M226" t="s">
         <v>4</v>
       </c>
-      <c r="N226">
-        <v>0</v>
+      <c r="N226" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O226" t="s">
+        <v>514</v>
+      </c>
+      <c r="P226" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0.25998916924855386</v>
+      </c>
+      <c r="R226" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>5.590794346088137</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0.9539505240876727</v>
+      </c>
+      <c r="U226" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V226" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W226" t="s">
+        <v>515</v>
+      </c>
+      <c r="X226" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -17430,8 +19695,38 @@
       <c r="M227" t="s">
         <v>4</v>
       </c>
-      <c r="N227">
-        <v>0</v>
+      <c r="N227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O227" t="s">
+        <v>517</v>
+      </c>
+      <c r="P227" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0.5784338618902467</v>
+      </c>
+      <c r="R227" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>8.14152756537253</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0.9143571415854191</v>
+      </c>
+      <c r="U227" t="n">
+        <v>87.71929824561404</v>
+      </c>
+      <c r="V227" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W227" t="s">
+        <v>518</v>
+      </c>
+      <c r="X227" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -17474,8 +19769,38 @@
       <c r="M228" t="s">
         <v>4</v>
       </c>
-      <c r="N228">
-        <v>0</v>
+      <c r="N228" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O228" t="s">
+        <v>519</v>
+      </c>
+      <c r="P228" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0.2757930968815998</v>
+      </c>
+      <c r="R228" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S228" t="n">
+        <v>3.629043964686981</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0.9735350109746027</v>
+      </c>
+      <c r="U228" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V228" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W228" t="s">
+        <v>520</v>
+      </c>
+      <c r="X228" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -17518,8 +19843,38 @@
       <c r="M229" t="s">
         <v>4</v>
       </c>
-      <c r="N229">
-        <v>0</v>
+      <c r="N229" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O229" t="s">
+        <v>521</v>
+      </c>
+      <c r="P229" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0.27757088903002725</v>
+      </c>
+      <c r="R229" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>5.9474326463522775</v>
+      </c>
+      <c r="T229" t="n">
+        <v>0.9507068726196315</v>
+      </c>
+      <c r="U229" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V229" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W229" t="s">
+        <v>522</v>
+      </c>
+      <c r="X229" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
@@ -17562,8 +19917,38 @@
       <c r="M230" t="s">
         <v>4</v>
       </c>
-      <c r="N230">
-        <v>0</v>
+      <c r="N230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O230" t="s">
+        <v>523</v>
+      </c>
+      <c r="P230" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0.23647494271118674</v>
+      </c>
+      <c r="R230" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S230" t="n">
+        <v>4.9343196642513325</v>
+      </c>
+      <c r="T230" t="n">
+        <v>0.9612840785877063</v>
+      </c>
+      <c r="U230" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V230" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W230" t="s">
+        <v>524</v>
+      </c>
+      <c r="X230" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -17606,8 +19991,38 @@
       <c r="M231" t="s">
         <v>4</v>
       </c>
-      <c r="N231">
-        <v>0</v>
+      <c r="N231" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O231" t="s">
+        <v>525</v>
+      </c>
+      <c r="P231" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0.29624166782881645</v>
+      </c>
+      <c r="R231" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>7.098050285748926</v>
+      </c>
+      <c r="T231" t="n">
+        <v>0.9313996023385542</v>
+      </c>
+      <c r="U231" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V231" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W231" t="s">
+        <v>526</v>
+      </c>
+      <c r="X231" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -17650,8 +20065,38 @@
       <c r="M232" t="s">
         <v>4</v>
       </c>
-      <c r="N232">
-        <v>0</v>
+      <c r="N232" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>527</v>
+      </c>
+      <c r="P232" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0.24964636482181213</v>
+      </c>
+      <c r="R232" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S232" t="n">
+        <v>11.347261761936798</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0.9135213785209978</v>
+      </c>
+      <c r="U232" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V232" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W232" t="s">
+        <v>528</v>
+      </c>
+      <c r="X232" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
@@ -17694,8 +20139,38 @@
       <c r="M233" t="s">
         <v>4</v>
       </c>
-      <c r="N233">
-        <v>0</v>
+      <c r="N233" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O233" t="s">
+        <v>529</v>
+      </c>
+      <c r="P233" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0.21915153168935397</v>
+      </c>
+      <c r="R233" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S233" t="n">
+        <v>2.838463127195199</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0.977298155622295</v>
+      </c>
+      <c r="U233" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V233" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W233" t="s">
+        <v>530</v>
+      </c>
+      <c r="X233" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -17738,8 +20213,38 @@
       <c r="M234" t="s">
         <v>4</v>
       </c>
-      <c r="N234">
-        <v>0</v>
+      <c r="N234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O234" t="s">
+        <v>531</v>
+      </c>
+      <c r="P234" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0.4896515088262223</v>
+      </c>
+      <c r="R234" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S234" t="n">
+        <v>5.75246338252062</v>
+      </c>
+      <c r="T234" t="n">
+        <v>0.9671132570431371</v>
+      </c>
+      <c r="U234" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V234" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W234" t="s">
+        <v>532</v>
+      </c>
+      <c r="X234" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
@@ -17782,8 +20287,38 @@
       <c r="M235" t="s">
         <v>4</v>
       </c>
-      <c r="N235">
-        <v>0</v>
+      <c r="N235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O235" t="s">
+        <v>533</v>
+      </c>
+      <c r="P235" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0.251085979593924</v>
+      </c>
+      <c r="R235" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S235" t="n">
+        <v>6.0589393248975</v>
+      </c>
+      <c r="T235" t="n">
+        <v>0.9611979291917817</v>
+      </c>
+      <c r="U235" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V235" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W235" t="s">
+        <v>534</v>
+      </c>
+      <c r="X235" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
@@ -17826,8 +20361,38 @@
       <c r="M236" t="s">
         <v>4</v>
       </c>
-      <c r="N236">
-        <v>0</v>
+      <c r="N236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>535</v>
+      </c>
+      <c r="P236" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0.24244776356686693</v>
+      </c>
+      <c r="R236" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S236" t="n">
+        <v>3.644485284466808</v>
+      </c>
+      <c r="T236" t="n">
+        <v>0.9732511744698196</v>
+      </c>
+      <c r="U236" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V236" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W236" t="s">
+        <v>536</v>
+      </c>
+      <c r="X236" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -17870,8 +20435,38 @@
       <c r="M237" t="s">
         <v>4</v>
       </c>
-      <c r="N237">
-        <v>0</v>
+      <c r="N237" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O237" t="s">
+        <v>537</v>
+      </c>
+      <c r="P237" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0.1914409497501559</v>
+      </c>
+      <c r="R237" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S237" t="n">
+        <v>3.2040706816098914</v>
+      </c>
+      <c r="T237" t="n">
+        <v>0.9807031830171193</v>
+      </c>
+      <c r="U237" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V237" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W237" t="s">
+        <v>538</v>
+      </c>
+      <c r="X237" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -17914,8 +20509,38 @@
       <c r="M238" t="s">
         <v>4</v>
       </c>
-      <c r="N238">
-        <v>0</v>
+      <c r="N238" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O238" t="s">
+        <v>539</v>
+      </c>
+      <c r="P238" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0.23817812785432224</v>
+      </c>
+      <c r="R238" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S238" t="n">
+        <v>6.3608822831148455</v>
+      </c>
+      <c r="T238" t="n">
+        <v>0.9440207345688917</v>
+      </c>
+      <c r="U238" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V238" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W238" t="s">
+        <v>540</v>
+      </c>
+      <c r="X238" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
@@ -17958,8 +20583,38 @@
       <c r="M239" t="s">
         <v>4</v>
       </c>
-      <c r="N239">
-        <v>0</v>
+      <c r="N239" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O239" t="s">
+        <v>541</v>
+      </c>
+      <c r="P239" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0.20878337758592913</v>
+      </c>
+      <c r="R239" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S239" t="n">
+        <v>6.3777369609668195</v>
+      </c>
+      <c r="T239" t="n">
+        <v>0.9524525378171539</v>
+      </c>
+      <c r="U239" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V239" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W239" t="s">
+        <v>542</v>
+      </c>
+      <c r="X239" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
@@ -18002,8 +20657,38 @@
       <c r="M240" t="s">
         <v>4</v>
       </c>
-      <c r="N240">
-        <v>0</v>
+      <c r="N240" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O240" t="s">
+        <v>543</v>
+      </c>
+      <c r="P240" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0.17307596054965302</v>
+      </c>
+      <c r="R240" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S240" t="n">
+        <v>1.8338613394824046</v>
+      </c>
+      <c r="T240" t="n">
+        <v>0.982601507023027</v>
+      </c>
+      <c r="U240" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V240" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W240" t="s">
+        <v>544</v>
+      </c>
+      <c r="X240" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
@@ -18046,8 +20731,38 @@
       <c r="M241" t="s">
         <v>4</v>
       </c>
-      <c r="N241">
-        <v>0</v>
+      <c r="N241" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O241" t="s">
+        <v>545</v>
+      </c>
+      <c r="P241" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0.5564473381219646</v>
+      </c>
+      <c r="R241" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S241" t="n">
+        <v>8.714022370051865</v>
+      </c>
+      <c r="T241" t="n">
+        <v>0.8948064818108721</v>
+      </c>
+      <c r="U241" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="V241" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W241" t="s">
+        <v>546</v>
+      </c>
+      <c r="X241" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
@@ -18090,8 +20805,38 @@
       <c r="M242" t="s">
         <v>4</v>
       </c>
-      <c r="N242">
-        <v>0</v>
+      <c r="N242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O242" t="s">
+        <v>547</v>
+      </c>
+      <c r="P242" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0.14638497174119713</v>
+      </c>
+      <c r="R242" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S242" t="n">
+        <v>2.1578298981025092</v>
+      </c>
+      <c r="T242" t="n">
+        <v>0.9832750580326177</v>
+      </c>
+      <c r="U242" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V242" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W242" t="s">
+        <v>548</v>
+      </c>
+      <c r="X242" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -18134,8 +20879,38 @@
       <c r="M243" t="s">
         <v>4</v>
       </c>
-      <c r="N243">
-        <v>0</v>
+      <c r="N243" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O243" t="s">
+        <v>549</v>
+      </c>
+      <c r="P243" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.24329680301886292</v>
+      </c>
+      <c r="R243" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S243" t="n">
+        <v>5.785448667802767</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0.9467738133537759</v>
+      </c>
+      <c r="U243" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V243" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W243" t="s">
+        <v>550</v>
+      </c>
+      <c r="X243" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -18178,8 +20953,38 @@
       <c r="M244" t="s">
         <v>4</v>
       </c>
-      <c r="N244">
-        <v>0</v>
+      <c r="N244" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O244" t="s">
+        <v>551</v>
+      </c>
+      <c r="P244" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0.1456632228445649</v>
+      </c>
+      <c r="R244" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S244" t="n">
+        <v>1.6375765414173435</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0.9855863056423827</v>
+      </c>
+      <c r="U244" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V244" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W244" t="s">
+        <v>552</v>
+      </c>
+      <c r="X244" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -18222,8 +21027,38 @@
       <c r="M245" t="s">
         <v>4</v>
       </c>
-      <c r="N245">
-        <v>0</v>
+      <c r="N245" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O245" t="s">
+        <v>553</v>
+      </c>
+      <c r="P245" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0.2490692203565903</v>
+      </c>
+      <c r="R245" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S245" t="n">
+        <v>4.989407650542023</v>
+      </c>
+      <c r="T245" t="n">
+        <v>0.966406615253533</v>
+      </c>
+      <c r="U245" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V245" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W245" t="s">
+        <v>554</v>
+      </c>
+      <c r="X245" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
@@ -18266,8 +21101,38 @@
       <c r="M246" t="s">
         <v>4</v>
       </c>
-      <c r="N246">
-        <v>0</v>
+      <c r="N246" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O246" t="s">
+        <v>555</v>
+      </c>
+      <c r="P246" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0.20259556573643778</v>
+      </c>
+      <c r="R246" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>4.166014939752116</v>
+      </c>
+      <c r="T246" t="n">
+        <v>0.9681784764105652</v>
+      </c>
+      <c r="U246" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V246" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W246" t="s">
+        <v>556</v>
+      </c>
+      <c r="X246" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
@@ -18310,8 +21175,38 @@
       <c r="M247" t="s">
         <v>4</v>
       </c>
-      <c r="N247">
-        <v>0</v>
+      <c r="N247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O247" t="s">
+        <v>557</v>
+      </c>
+      <c r="P247" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0.3113335677739304</v>
+      </c>
+      <c r="R247" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>4.115276619141362</v>
+      </c>
+      <c r="T247" t="n">
+        <v>0.9630623305546014</v>
+      </c>
+      <c r="U247" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V247" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W247" t="s">
+        <v>558</v>
+      </c>
+      <c r="X247" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
@@ -18354,8 +21249,38 @@
       <c r="M248" t="s">
         <v>4</v>
       </c>
-      <c r="N248">
-        <v>0</v>
+      <c r="N248" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O248" t="s">
+        <v>559</v>
+      </c>
+      <c r="P248" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0.45936884183687887</v>
+      </c>
+      <c r="R248" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S248" t="n">
+        <v>9.58191202948593</v>
+      </c>
+      <c r="T248" t="n">
+        <v>0.9351190685598793</v>
+      </c>
+      <c r="U248" t="n">
+        <v>87.71929824561404</v>
+      </c>
+      <c r="V248" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W248" t="s">
+        <v>560</v>
+      </c>
+      <c r="X248" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
@@ -18398,8 +21323,38 @@
       <c r="M249" t="s">
         <v>4</v>
       </c>
-      <c r="N249">
-        <v>0</v>
+      <c r="N249" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O249" t="s">
+        <v>561</v>
+      </c>
+      <c r="P249" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0.35138989270044974</v>
+      </c>
+      <c r="R249" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S249" t="n">
+        <v>5.374276742744746</v>
+      </c>
+      <c r="T249" t="n">
+        <v>0.9651522907395327</v>
+      </c>
+      <c r="U249" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V249" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W249" t="s">
+        <v>562</v>
+      </c>
+      <c r="X249" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
@@ -18442,8 +21397,38 @@
       <c r="M250" t="s">
         <v>4</v>
       </c>
-      <c r="N250">
-        <v>0</v>
+      <c r="N250" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O250" t="s">
+        <v>563</v>
+      </c>
+      <c r="P250" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0.32918206618931656</v>
+      </c>
+      <c r="R250" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S250" t="n">
+        <v>9.746613775683016</v>
+      </c>
+      <c r="T250" t="n">
+        <v>0.9150374162369598</v>
+      </c>
+      <c r="U250" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V250" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W250" t="s">
+        <v>564</v>
+      </c>
+      <c r="X250" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
@@ -18486,8 +21471,38 @@
       <c r="M251" t="s">
         <v>4</v>
       </c>
-      <c r="N251">
-        <v>0</v>
+      <c r="N251" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O251" t="s">
+        <v>565</v>
+      </c>
+      <c r="P251" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0.30718050013595466</v>
+      </c>
+      <c r="R251" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S251" t="n">
+        <v>5.198102691524906</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0.9627366108949726</v>
+      </c>
+      <c r="U251" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V251" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W251" t="s">
+        <v>566</v>
+      </c>
+      <c r="X251" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
@@ -18530,8 +21545,38 @@
       <c r="M252" t="s">
         <v>4</v>
       </c>
-      <c r="N252">
-        <v>0</v>
+      <c r="N252" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O252" t="s">
+        <v>567</v>
+      </c>
+      <c r="P252" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0.37746416864445465</v>
+      </c>
+      <c r="R252" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S252" t="n">
+        <v>7.633876311961444</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0.9423305222538036</v>
+      </c>
+      <c r="U252" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V252" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W252" t="s">
+        <v>568</v>
+      </c>
+      <c r="X252" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
@@ -18574,8 +21619,38 @@
       <c r="M253" t="s">
         <v>4</v>
       </c>
-      <c r="N253">
-        <v>0</v>
+      <c r="N253" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O253" t="s">
+        <v>569</v>
+      </c>
+      <c r="P253" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0.313802097608189</v>
+      </c>
+      <c r="R253" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>7.036951626251957</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0.9382535450719733</v>
+      </c>
+      <c r="U253" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V253" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W253" t="s">
+        <v>570</v>
+      </c>
+      <c r="X253" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
@@ -18618,8 +21693,38 @@
       <c r="M254" t="s">
         <v>4</v>
       </c>
-      <c r="N254">
-        <v>0</v>
+      <c r="N254" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O254" t="s">
+        <v>571</v>
+      </c>
+      <c r="P254" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0.21579284953647537</v>
+      </c>
+      <c r="R254" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5.290960565462797</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0.9526529726005705</v>
+      </c>
+      <c r="U254" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V254" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W254" t="s">
+        <v>572</v>
+      </c>
+      <c r="X254" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
@@ -18662,8 +21767,38 @@
       <c r="M255" t="s">
         <v>4</v>
       </c>
-      <c r="N255">
-        <v>0</v>
+      <c r="N255" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O255" t="s">
+        <v>574</v>
+      </c>
+      <c r="P255" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0.5862211282549392</v>
+      </c>
+      <c r="R255" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>6.831204569527948</v>
+      </c>
+      <c r="T255" t="n">
+        <v>0.935672698171743</v>
+      </c>
+      <c r="U255" t="n">
+        <v>87.13450292397661</v>
+      </c>
+      <c r="V255" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W255" t="s">
+        <v>575</v>
+      </c>
+      <c r="X255" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
@@ -18706,8 +21841,38 @@
       <c r="M256" t="s">
         <v>4</v>
       </c>
-      <c r="N256">
-        <v>0</v>
+      <c r="N256" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O256" t="s">
+        <v>576</v>
+      </c>
+      <c r="P256" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0.2884305459141281</v>
+      </c>
+      <c r="R256" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>2.7221352450892033</v>
+      </c>
+      <c r="T256" t="n">
+        <v>0.9633860775640667</v>
+      </c>
+      <c r="U256" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V256" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W256" t="s">
+        <v>577</v>
+      </c>
+      <c r="X256" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
@@ -18750,8 +21915,38 @@
       <c r="M257" t="s">
         <v>4</v>
       </c>
-      <c r="N257">
-        <v>0</v>
+      <c r="N257" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O257" t="s">
+        <v>578</v>
+      </c>
+      <c r="P257" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0.3117800117155589</v>
+      </c>
+      <c r="R257" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S257" t="n">
+        <v>6.781209718217473</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0.941437267627821</v>
+      </c>
+      <c r="U257" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V257" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W257" t="s">
+        <v>579</v>
+      </c>
+      <c r="X257" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
@@ -18794,8 +21989,38 @@
       <c r="M258" t="s">
         <v>4</v>
       </c>
-      <c r="N258">
-        <v>0</v>
+      <c r="N258" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O258" t="s">
+        <v>580</v>
+      </c>
+      <c r="P258" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0.2365421657410618</v>
+      </c>
+      <c r="R258" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S258" t="n">
+        <v>4.891795927863249</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0.9620752658177292</v>
+      </c>
+      <c r="U258" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V258" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W258" t="s">
+        <v>581</v>
+      </c>
+      <c r="X258" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
@@ -18838,8 +22063,38 @@
       <c r="M259" t="s">
         <v>4</v>
       </c>
-      <c r="N259">
-        <v>0</v>
+      <c r="N259" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O259" t="s">
+        <v>582</v>
+      </c>
+      <c r="P259" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0.2867276577204301</v>
+      </c>
+      <c r="R259" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="S259" t="n">
+        <v>7.257838046318495</v>
+      </c>
+      <c r="T259" t="n">
+        <v>0.9520736889784733</v>
+      </c>
+      <c r="U259" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V259" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W259" t="s">
+        <v>583</v>
+      </c>
+      <c r="X259" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
@@ -18882,8 +22137,38 @@
       <c r="M260" t="s">
         <v>4</v>
       </c>
-      <c r="N260">
-        <v>0</v>
+      <c r="N260" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O260" t="s">
+        <v>584</v>
+      </c>
+      <c r="P260" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0.23063280663033936</v>
+      </c>
+      <c r="R260" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S260" t="n">
+        <v>8.028685643949105</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0.9329468754998869</v>
+      </c>
+      <c r="U260" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V260" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W260" t="s">
+        <v>585</v>
+      </c>
+      <c r="X260" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
@@ -18926,8 +22211,38 @@
       <c r="M261" t="s">
         <v>4</v>
       </c>
-      <c r="N261">
-        <v>0</v>
+      <c r="N261" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O261" t="s">
+        <v>586</v>
+      </c>
+      <c r="P261" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0.20330588398018</v>
+      </c>
+      <c r="R261" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S261" t="n">
+        <v>2.9936089606022</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0.9817323300936126</v>
+      </c>
+      <c r="U261" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V261" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W261" t="s">
+        <v>587</v>
+      </c>
+      <c r="X261" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
@@ -18970,8 +22285,38 @@
       <c r="M262" t="s">
         <v>4</v>
       </c>
-      <c r="N262">
-        <v>0</v>
+      <c r="N262" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O262" t="s">
+        <v>588</v>
+      </c>
+      <c r="P262" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0.47551940101130796</v>
+      </c>
+      <c r="R262" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S262" t="n">
+        <v>8.751623313488702</v>
+      </c>
+      <c r="T262" t="n">
+        <v>0.9395154434341082</v>
+      </c>
+      <c r="U262" t="n">
+        <v>92.98245614035088</v>
+      </c>
+      <c r="V262" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W262" t="s">
+        <v>589</v>
+      </c>
+      <c r="X262" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
@@ -19014,8 +22359,38 @@
       <c r="M263" t="s">
         <v>4</v>
       </c>
-      <c r="N263">
-        <v>0</v>
+      <c r="N263" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O263" t="s">
+        <v>590</v>
+      </c>
+      <c r="P263" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0.2424470078778711</v>
+      </c>
+      <c r="R263" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S263" t="n">
+        <v>5.260059064174246</v>
+      </c>
+      <c r="T263" t="n">
+        <v>0.9688293928643231</v>
+      </c>
+      <c r="U263" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V263" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W263" t="s">
+        <v>591</v>
+      </c>
+      <c r="X263" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
@@ -19058,8 +22433,38 @@
       <c r="M264" t="s">
         <v>4</v>
       </c>
-      <c r="N264">
-        <v>0</v>
+      <c r="N264" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O264" t="s">
+        <v>592</v>
+      </c>
+      <c r="P264" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0.2967723820479886</v>
+      </c>
+      <c r="R264" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S264" t="n">
+        <v>6.388997806612164</v>
+      </c>
+      <c r="T264" t="n">
+        <v>0.949149576219896</v>
+      </c>
+      <c r="U264" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V264" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W264" t="s">
+        <v>593</v>
+      </c>
+      <c r="X264" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
@@ -19102,8 +22507,38 @@
       <c r="M265" t="s">
         <v>4</v>
       </c>
-      <c r="N265">
-        <v>0</v>
+      <c r="N265" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O265" t="s">
+        <v>594</v>
+      </c>
+      <c r="P265" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0.23277783755522385</v>
+      </c>
+      <c r="R265" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S265" t="n">
+        <v>4.708558549619778</v>
+      </c>
+      <c r="T265" t="n">
+        <v>0.9562736637562014</v>
+      </c>
+      <c r="U265" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V265" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W265" t="s">
+        <v>595</v>
+      </c>
+      <c r="X265" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
@@ -19146,8 +22581,38 @@
       <c r="M266" t="s">
         <v>4</v>
       </c>
-      <c r="N266">
-        <v>0</v>
+      <c r="N266" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O266" t="s">
+        <v>596</v>
+      </c>
+      <c r="P266" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0.2630137744326575</v>
+      </c>
+      <c r="R266" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S266" t="n">
+        <v>5.295568035233124</v>
+      </c>
+      <c r="T266" t="n">
+        <v>0.9507075844810522</v>
+      </c>
+      <c r="U266" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V266" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W266" t="s">
+        <v>597</v>
+      </c>
+      <c r="X266" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
@@ -19190,8 +22655,38 @@
       <c r="M267" t="s">
         <v>4</v>
       </c>
-      <c r="N267">
-        <v>0</v>
+      <c r="N267" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O267" t="s">
+        <v>598</v>
+      </c>
+      <c r="P267" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0.2096989111702925</v>
+      </c>
+      <c r="R267" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S267" t="n">
+        <v>5.030056482954717</v>
+      </c>
+      <c r="T267" t="n">
+        <v>0.9586979424647053</v>
+      </c>
+      <c r="U267" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V267" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W267" t="s">
+        <v>599</v>
+      </c>
+      <c r="X267" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
@@ -19234,8 +22729,38 @@
       <c r="M268" t="s">
         <v>4</v>
       </c>
-      <c r="N268">
-        <v>0</v>
+      <c r="N268" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O268" t="s">
+        <v>600</v>
+      </c>
+      <c r="P268" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0.1761220636214631</v>
+      </c>
+      <c r="R268" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S268" t="n">
+        <v>1.7050463527205915</v>
+      </c>
+      <c r="T268" t="n">
+        <v>0.9820813799123416</v>
+      </c>
+      <c r="U268" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V268" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W268" t="s">
+        <v>601</v>
+      </c>
+      <c r="X268" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
@@ -19278,8 +22803,38 @@
       <c r="M269" t="s">
         <v>4</v>
       </c>
-      <c r="N269">
-        <v>0</v>
+      <c r="N269" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O269" t="s">
+        <v>602</v>
+      </c>
+      <c r="P269" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0.5010839020540772</v>
+      </c>
+      <c r="R269" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S269" t="n">
+        <v>7.746394677993</v>
+      </c>
+      <c r="T269" t="n">
+        <v>0.9193067046211931</v>
+      </c>
+      <c r="U269" t="n">
+        <v>91.2280701754386</v>
+      </c>
+      <c r="V269" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W269" t="s">
+        <v>603</v>
+      </c>
+      <c r="X269" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -19322,8 +22877,38 @@
       <c r="M270" t="s">
         <v>4</v>
       </c>
-      <c r="N270">
-        <v>0</v>
+      <c r="N270" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O270" t="s">
+        <v>604</v>
+      </c>
+      <c r="P270" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0.16909348792302126</v>
+      </c>
+      <c r="R270" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S270" t="n">
+        <v>3.327770730718864</v>
+      </c>
+      <c r="T270" t="n">
+        <v>0.9749869124490026</v>
+      </c>
+      <c r="U270" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V270" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W270" t="s">
+        <v>605</v>
+      </c>
+      <c r="X270" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
@@ -19366,8 +22951,38 @@
       <c r="M271" t="s">
         <v>4</v>
       </c>
-      <c r="N271">
-        <v>0</v>
+      <c r="N271" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O271" t="s">
+        <v>606</v>
+      </c>
+      <c r="P271" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0.24038826675089098</v>
+      </c>
+      <c r="R271" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S271" t="n">
+        <v>3.1881168800672475</v>
+      </c>
+      <c r="T271" t="n">
+        <v>0.9776453565803832</v>
+      </c>
+      <c r="U271" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V271" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W271" t="s">
+        <v>607</v>
+      </c>
+      <c r="X271" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
@@ -19410,8 +23025,38 @@
       <c r="M272" t="s">
         <v>4</v>
       </c>
-      <c r="N272">
-        <v>0</v>
+      <c r="N272" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O272" t="s">
+        <v>608</v>
+      </c>
+      <c r="P272" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0.16702811088730485</v>
+      </c>
+      <c r="R272" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S272" t="n">
+        <v>3.0385310829383525</v>
+      </c>
+      <c r="T272" t="n">
+        <v>0.9681687087133849</v>
+      </c>
+      <c r="U272" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V272" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W272" t="s">
+        <v>609</v>
+      </c>
+      <c r="X272" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
@@ -19454,8 +23099,38 @@
       <c r="M273" t="s">
         <v>4</v>
       </c>
-      <c r="N273">
-        <v>0</v>
+      <c r="N273" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O273" t="s">
+        <v>610</v>
+      </c>
+      <c r="P273" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0.2517465653610831</v>
+      </c>
+      <c r="R273" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S273" t="n">
+        <v>5.097196331902817</v>
+      </c>
+      <c r="T273" t="n">
+        <v>0.9442972377007183</v>
+      </c>
+      <c r="U273" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V273" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W273" t="s">
+        <v>611</v>
+      </c>
+      <c r="X273" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
@@ -19498,8 +23173,38 @@
       <c r="M274" t="s">
         <v>4</v>
       </c>
-      <c r="N274">
-        <v>0</v>
+      <c r="N274" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O274" t="s">
+        <v>612</v>
+      </c>
+      <c r="P274" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0.19443721073045772</v>
+      </c>
+      <c r="R274" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>2.5103873812831523</v>
+      </c>
+      <c r="T274" t="n">
+        <v>0.9821212724583346</v>
+      </c>
+      <c r="U274" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V274" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W274" t="s">
+        <v>613</v>
+      </c>
+      <c r="X274" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
@@ -19542,8 +23247,38 @@
       <c r="M275" t="s">
         <v>4</v>
       </c>
-      <c r="N275">
-        <v>0</v>
+      <c r="N275" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O275" t="s">
+        <v>614</v>
+      </c>
+      <c r="P275" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0.2932240392740155</v>
+      </c>
+      <c r="R275" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S275" t="n">
+        <v>5.368823935382631</v>
+      </c>
+      <c r="T275" t="n">
+        <v>0.9122211888053018</v>
+      </c>
+      <c r="U275" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V275" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W275" t="s">
+        <v>615</v>
+      </c>
+      <c r="X275" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
@@ -19586,8 +23321,38 @@
       <c r="M276" t="s">
         <v>4</v>
       </c>
-      <c r="N276">
-        <v>0</v>
+      <c r="N276" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O276" t="s">
+        <v>616</v>
+      </c>
+      <c r="P276" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0.4907975229903645</v>
+      </c>
+      <c r="R276" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S276" t="n">
+        <v>6.912545190570425</v>
+      </c>
+      <c r="T276" t="n">
+        <v>0.9323050859461018</v>
+      </c>
+      <c r="U276" t="n">
+        <v>87.13450292397661</v>
+      </c>
+      <c r="V276" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W276" t="s">
+        <v>617</v>
+      </c>
+      <c r="X276" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
@@ -19630,8 +23395,38 @@
       <c r="M277" t="s">
         <v>4</v>
       </c>
-      <c r="N277">
-        <v>0</v>
+      <c r="N277" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O277" t="s">
+        <v>618</v>
+      </c>
+      <c r="P277" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0.33823894647845876</v>
+      </c>
+      <c r="R277" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S277" t="n">
+        <v>5.12010412913455</v>
+      </c>
+      <c r="T277" t="n">
+        <v>0.9680476543116189</v>
+      </c>
+      <c r="U277" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V277" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W277" t="s">
+        <v>619</v>
+      </c>
+      <c r="X277" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
@@ -19674,8 +23469,38 @@
       <c r="M278" t="s">
         <v>4</v>
       </c>
-      <c r="N278">
-        <v>0</v>
+      <c r="N278" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O278" t="s">
+        <v>620</v>
+      </c>
+      <c r="P278" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0.37116930781668955</v>
+      </c>
+      <c r="R278" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S278" t="n">
+        <v>8.619591920018184</v>
+      </c>
+      <c r="T278" t="n">
+        <v>0.9205131688772018</v>
+      </c>
+      <c r="U278" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V278" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W278" t="s">
+        <v>621</v>
+      </c>
+      <c r="X278" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
@@ -19718,8 +23543,38 @@
       <c r="M279" t="s">
         <v>4</v>
       </c>
-      <c r="N279">
-        <v>0</v>
+      <c r="N279" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O279" t="s">
+        <v>622</v>
+      </c>
+      <c r="P279" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0.295060005689054</v>
+      </c>
+      <c r="R279" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S279" t="n">
+        <v>8.422818459878744</v>
+      </c>
+      <c r="T279" t="n">
+        <v>0.926277944478493</v>
+      </c>
+      <c r="U279" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V279" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W279" t="s">
+        <v>623</v>
+      </c>
+      <c r="X279" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
@@ -19762,8 +23617,38 @@
       <c r="M280" t="s">
         <v>4</v>
       </c>
-      <c r="N280">
-        <v>0</v>
+      <c r="N280" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O280" t="s">
+        <v>624</v>
+      </c>
+      <c r="P280" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0.338062380709653</v>
+      </c>
+      <c r="R280" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S280" t="n">
+        <v>6.244007625191223</v>
+      </c>
+      <c r="T280" t="n">
+        <v>0.9390584161497725</v>
+      </c>
+      <c r="U280" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V280" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W280" t="s">
+        <v>625</v>
+      </c>
+      <c r="X280" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -19806,8 +23691,38 @@
       <c r="M281" t="s">
         <v>4</v>
       </c>
-      <c r="N281">
-        <v>0</v>
+      <c r="N281" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O281" t="s">
+        <v>626</v>
+      </c>
+      <c r="P281" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0.2875604855111735</v>
+      </c>
+      <c r="R281" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S281" t="n">
+        <v>4.512460247314287</v>
+      </c>
+      <c r="T281" t="n">
+        <v>0.9613033309521998</v>
+      </c>
+      <c r="U281" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V281" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W281" t="s">
+        <v>627</v>
+      </c>
+      <c r="X281" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
@@ -19850,8 +23765,38 @@
       <c r="M282" t="s">
         <v>4</v>
       </c>
-      <c r="N282">
-        <v>0</v>
+      <c r="N282" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O282" t="s">
+        <v>628</v>
+      </c>
+      <c r="P282" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0.2730331516270166</v>
+      </c>
+      <c r="R282" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S282" t="n">
+        <v>8.816948930573098</v>
+      </c>
+      <c r="T282" t="n">
+        <v>0.9329257448890212</v>
+      </c>
+      <c r="U282" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V282" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W282" t="s">
+        <v>629</v>
+      </c>
+      <c r="X282" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
@@ -19894,8 +23839,38 @@
       <c r="M283" t="s">
         <v>4</v>
       </c>
-      <c r="N283">
-        <v>0</v>
+      <c r="N283" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O283" t="s">
+        <v>631</v>
+      </c>
+      <c r="P283" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0.6371336532671936</v>
+      </c>
+      <c r="R283" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S283" t="n">
+        <v>8.197180774621456</v>
+      </c>
+      <c r="T283" t="n">
+        <v>0.9218255858786815</v>
+      </c>
+      <c r="U283" t="n">
+        <v>88.30409356725146</v>
+      </c>
+      <c r="V283" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W283" t="s">
+        <v>632</v>
+      </c>
+      <c r="X283" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
@@ -19938,8 +23913,38 @@
       <c r="M284" t="s">
         <v>4</v>
       </c>
-      <c r="N284">
-        <v>0</v>
+      <c r="N284" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O284" t="s">
+        <v>633</v>
+      </c>
+      <c r="P284" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0.3151883827665998</v>
+      </c>
+      <c r="R284" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S284" t="n">
+        <v>4.659406097725309</v>
+      </c>
+      <c r="T284" t="n">
+        <v>0.9667390337363969</v>
+      </c>
+      <c r="U284" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V284" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W284" t="s">
+        <v>634</v>
+      </c>
+      <c r="X284" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
@@ -19982,8 +23987,38 @@
       <c r="M285" t="s">
         <v>4</v>
       </c>
-      <c r="N285">
-        <v>0</v>
+      <c r="N285" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O285" t="s">
+        <v>635</v>
+      </c>
+      <c r="P285" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0.2824052748594372</v>
+      </c>
+      <c r="R285" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="S285" t="n">
+        <v>9.179873262196109</v>
+      </c>
+      <c r="T285" t="n">
+        <v>0.9144131869293928</v>
+      </c>
+      <c r="U285" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V285" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W285" t="s">
+        <v>636</v>
+      </c>
+      <c r="X285" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
@@ -20026,8 +24061,38 @@
       <c r="M286" t="s">
         <v>4</v>
       </c>
-      <c r="N286">
-        <v>0</v>
+      <c r="N286" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O286" t="s">
+        <v>637</v>
+      </c>
+      <c r="P286" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0.272215138314607</v>
+      </c>
+      <c r="R286" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S286" t="n">
+        <v>6.652036946494427</v>
+      </c>
+      <c r="T286" t="n">
+        <v>0.942786703731518</v>
+      </c>
+      <c r="U286" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V286" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W286" t="s">
+        <v>638</v>
+      </c>
+      <c r="X286" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
@@ -20070,8 +24135,38 @@
       <c r="M287" t="s">
         <v>4</v>
       </c>
-      <c r="N287">
-        <v>0</v>
+      <c r="N287" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O287" t="s">
+        <v>639</v>
+      </c>
+      <c r="P287" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0.315607292269819</v>
+      </c>
+      <c r="R287" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="S287" t="n">
+        <v>10.254777142652511</v>
+      </c>
+      <c r="T287" t="n">
+        <v>0.8914598642892865</v>
+      </c>
+      <c r="U287" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V287" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W287" t="s">
+        <v>640</v>
+      </c>
+      <c r="X287" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
@@ -20114,8 +24209,38 @@
       <c r="M288" t="s">
         <v>4</v>
       </c>
-      <c r="N288">
-        <v>0</v>
+      <c r="N288" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O288" t="s">
+        <v>641</v>
+      </c>
+      <c r="P288" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0.2381066454624836</v>
+      </c>
+      <c r="R288" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S288" t="n">
+        <v>5.868870260275241</v>
+      </c>
+      <c r="T288" t="n">
+        <v>0.952185072330227</v>
+      </c>
+      <c r="U288" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V288" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W288" t="s">
+        <v>642</v>
+      </c>
+      <c r="X288" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
@@ -20158,8 +24283,38 @@
       <c r="M289" t="s">
         <v>4</v>
       </c>
-      <c r="N289">
-        <v>0</v>
+      <c r="N289" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O289" t="s">
+        <v>643</v>
+      </c>
+      <c r="P289" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0.198335942863471</v>
+      </c>
+      <c r="R289" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S289" t="n">
+        <v>1.7148074134450628</v>
+      </c>
+      <c r="T289" t="n">
+        <v>0.982362129808336</v>
+      </c>
+      <c r="U289" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V289" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W289" t="s">
+        <v>644</v>
+      </c>
+      <c r="X289" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
@@ -20202,8 +24357,38 @@
       <c r="M290" t="s">
         <v>4</v>
       </c>
-      <c r="N290">
-        <v>0</v>
+      <c r="N290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O290" t="s">
+        <v>645</v>
+      </c>
+      <c r="P290" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0.4723602765896384</v>
+      </c>
+      <c r="R290" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S290" t="n">
+        <v>6.590085441039154</v>
+      </c>
+      <c r="T290" t="n">
+        <v>0.9442740133336812</v>
+      </c>
+      <c r="U290" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V290" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W290" t="s">
+        <v>646</v>
+      </c>
+      <c r="X290" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
@@ -20246,8 +24431,38 @@
       <c r="M291" t="s">
         <v>4</v>
       </c>
-      <c r="N291">
-        <v>0</v>
+      <c r="N291" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O291" t="s">
+        <v>647</v>
+      </c>
+      <c r="P291" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0.2575279610429657</v>
+      </c>
+      <c r="R291" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S291" t="n">
+        <v>6.213407049731328</v>
+      </c>
+      <c r="T291" t="n">
+        <v>0.9565089948289739</v>
+      </c>
+      <c r="U291" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V291" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W291" t="s">
+        <v>648</v>
+      </c>
+      <c r="X291" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
@@ -20290,8 +24505,38 @@
       <c r="M292" t="s">
         <v>4</v>
       </c>
-      <c r="N292">
-        <v>0</v>
+      <c r="N292" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O292" t="s">
+        <v>649</v>
+      </c>
+      <c r="P292" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0.22191589920598354</v>
+      </c>
+      <c r="R292" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S292" t="n">
+        <v>4.823805087838597</v>
+      </c>
+      <c r="T292" t="n">
+        <v>0.968154400422026</v>
+      </c>
+      <c r="U292" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V292" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W292" t="s">
+        <v>650</v>
+      </c>
+      <c r="X292" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
@@ -20334,8 +24579,38 @@
       <c r="M293" t="s">
         <v>4</v>
       </c>
-      <c r="N293">
-        <v>0</v>
+      <c r="N293" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O293" t="s">
+        <v>651</v>
+      </c>
+      <c r="P293" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0.19573301078073868</v>
+      </c>
+      <c r="R293" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S293" t="n">
+        <v>3.723247439637007</v>
+      </c>
+      <c r="T293" t="n">
+        <v>0.9701209903470075</v>
+      </c>
+      <c r="U293" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V293" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W293" t="s">
+        <v>652</v>
+      </c>
+      <c r="X293" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
@@ -20378,8 +24653,38 @@
       <c r="M294" t="s">
         <v>4</v>
       </c>
-      <c r="N294">
-        <v>0</v>
+      <c r="N294" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O294" t="s">
+        <v>653</v>
+      </c>
+      <c r="P294" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0.2769465647251579</v>
+      </c>
+      <c r="R294" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="S294" t="n">
+        <v>6.582465176012932</v>
+      </c>
+      <c r="T294" t="n">
+        <v>0.9609573572957544</v>
+      </c>
+      <c r="U294" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V294" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W294" t="s">
+        <v>654</v>
+      </c>
+      <c r="X294" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
@@ -20422,8 +24727,38 @@
       <c r="M295" t="s">
         <v>4</v>
       </c>
-      <c r="N295">
-        <v>0</v>
+      <c r="N295" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O295" t="s">
+        <v>655</v>
+      </c>
+      <c r="P295" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0.1977894394885027</v>
+      </c>
+      <c r="R295" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S295" t="n">
+        <v>6.575265600720881</v>
+      </c>
+      <c r="T295" t="n">
+        <v>0.9541921681874271</v>
+      </c>
+      <c r="U295" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V295" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W295" t="s">
+        <v>656</v>
+      </c>
+      <c r="X295" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
@@ -20466,8 +24801,38 @@
       <c r="M296" t="s">
         <v>4</v>
       </c>
-      <c r="N296">
-        <v>0</v>
+      <c r="N296" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O296" t="s">
+        <v>657</v>
+      </c>
+      <c r="P296" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0.16869545227040383</v>
+      </c>
+      <c r="R296" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S296" t="n">
+        <v>2.042349659306888</v>
+      </c>
+      <c r="T296" t="n">
+        <v>0.9817857173387711</v>
+      </c>
+      <c r="U296" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V296" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W296" t="s">
+        <v>658</v>
+      </c>
+      <c r="X296" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
@@ -20510,8 +24875,38 @@
       <c r="M297" t="s">
         <v>4</v>
       </c>
-      <c r="N297">
-        <v>0</v>
+      <c r="N297" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O297" t="s">
+        <v>659</v>
+      </c>
+      <c r="P297" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0.48664439312242</v>
+      </c>
+      <c r="R297" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S297" t="n">
+        <v>6.9879562842835234</v>
+      </c>
+      <c r="T297" t="n">
+        <v>0.9340302664639992</v>
+      </c>
+      <c r="U297" t="n">
+        <v>85.96491228070175</v>
+      </c>
+      <c r="V297" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W297" t="s">
+        <v>660</v>
+      </c>
+      <c r="X297" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
@@ -20554,8 +24949,38 @@
       <c r="M298" t="s">
         <v>4</v>
       </c>
-      <c r="N298">
-        <v>0</v>
+      <c r="N298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O298" t="s">
+        <v>661</v>
+      </c>
+      <c r="P298" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0.17124608867335134</v>
+      </c>
+      <c r="R298" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S298" t="n">
+        <v>2.694939426100592</v>
+      </c>
+      <c r="T298" t="n">
+        <v>0.9770345249495063</v>
+      </c>
+      <c r="U298" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V298" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W298" t="s">
+        <v>662</v>
+      </c>
+      <c r="X298" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
@@ -20598,8 +25023,38 @@
       <c r="M299" t="s">
         <v>4</v>
       </c>
-      <c r="N299">
-        <v>0</v>
+      <c r="N299" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O299" t="s">
+        <v>663</v>
+      </c>
+      <c r="P299" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0.2302008380480398</v>
+      </c>
+      <c r="R299" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S299" t="n">
+        <v>6.597681635681626</v>
+      </c>
+      <c r="T299" t="n">
+        <v>0.9413945891489003</v>
+      </c>
+      <c r="U299" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V299" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W299" t="s">
+        <v>664</v>
+      </c>
+      <c r="X299" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
@@ -20642,8 +25097,38 @@
       <c r="M300" t="s">
         <v>4</v>
       </c>
-      <c r="N300">
-        <v>0</v>
+      <c r="N300" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O300" t="s">
+        <v>665</v>
+      </c>
+      <c r="P300" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0.1523889848738751</v>
+      </c>
+      <c r="R300" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S300" t="n">
+        <v>1.4950625748273285</v>
+      </c>
+      <c r="T300" t="n">
+        <v>0.986340213087679</v>
+      </c>
+      <c r="U300" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V300" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W300" t="s">
+        <v>666</v>
+      </c>
+      <c r="X300" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
@@ -20686,8 +25171,38 @@
       <c r="M301" t="s">
         <v>4</v>
       </c>
-      <c r="N301">
-        <v>0</v>
+      <c r="N301" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O301" t="s">
+        <v>667</v>
+      </c>
+      <c r="P301" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0.23932356406784727</v>
+      </c>
+      <c r="R301" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S301" t="n">
+        <v>6.0833565561096545</v>
+      </c>
+      <c r="T301" t="n">
+        <v>0.9541078573728795</v>
+      </c>
+      <c r="U301" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V301" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W301" t="s">
+        <v>668</v>
+      </c>
+      <c r="X301" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
@@ -20730,8 +25245,38 @@
       <c r="M302" t="s">
         <v>4</v>
       </c>
-      <c r="N302">
-        <v>0</v>
+      <c r="N302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O302" t="s">
+        <v>669</v>
+      </c>
+      <c r="P302" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0.21492465420111628</v>
+      </c>
+      <c r="R302" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S302" t="n">
+        <v>5.927685334684139</v>
+      </c>
+      <c r="T302" t="n">
+        <v>0.9166683987511417</v>
+      </c>
+      <c r="U302" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V302" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W302" t="s">
+        <v>670</v>
+      </c>
+      <c r="X302" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
@@ -20774,8 +25319,38 @@
       <c r="M303" t="s">
         <v>4</v>
       </c>
-      <c r="N303">
-        <v>0</v>
+      <c r="N303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O303" t="s">
+        <v>671</v>
+      </c>
+      <c r="P303" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0.3510609065778567</v>
+      </c>
+      <c r="R303" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S303" t="n">
+        <v>8.123664816454859</v>
+      </c>
+      <c r="T303" t="n">
+        <v>0.9414115326046687</v>
+      </c>
+      <c r="U303" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V303" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W303" t="s">
+        <v>672</v>
+      </c>
+      <c r="X303" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
@@ -20818,8 +25393,38 @@
       <c r="M304" t="s">
         <v>4</v>
       </c>
-      <c r="N304">
-        <v>0</v>
+      <c r="N304" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O304" t="s">
+        <v>673</v>
+      </c>
+      <c r="P304" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0.4974603144936278</v>
+      </c>
+      <c r="R304" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S304" t="n">
+        <v>8.802873014339166</v>
+      </c>
+      <c r="T304" t="n">
+        <v>0.9283085003825371</v>
+      </c>
+      <c r="U304" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="V304" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W304" t="s">
+        <v>674</v>
+      </c>
+      <c r="X304" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
@@ -20862,8 +25467,38 @@
       <c r="M305" t="s">
         <v>4</v>
       </c>
-      <c r="N305">
-        <v>0</v>
+      <c r="N305" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O305" t="s">
+        <v>675</v>
+      </c>
+      <c r="P305" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0.3401644825047381</v>
+      </c>
+      <c r="R305" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S305" t="n">
+        <v>19.36765742858579</v>
+      </c>
+      <c r="T305" t="n">
+        <v>0.8779014087263888</v>
+      </c>
+      <c r="U305" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V305" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W305" t="s">
+        <v>676</v>
+      </c>
+      <c r="X305" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
@@ -20906,8 +25541,38 @@
       <c r="M306" t="s">
         <v>4</v>
       </c>
-      <c r="N306">
-        <v>0</v>
+      <c r="N306" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O306" t="s">
+        <v>677</v>
+      </c>
+      <c r="P306" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0.3158313221517197</v>
+      </c>
+      <c r="R306" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S306" t="n">
+        <v>7.174488064400967</v>
+      </c>
+      <c r="T306" t="n">
+        <v>0.9496495412324714</v>
+      </c>
+      <c r="U306" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V306" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W306" t="s">
+        <v>678</v>
+      </c>
+      <c r="X306" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
@@ -20950,8 +25615,38 @@
       <c r="M307" t="s">
         <v>4</v>
       </c>
-      <c r="N307">
-        <v>0</v>
+      <c r="N307" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O307" t="s">
+        <v>679</v>
+      </c>
+      <c r="P307" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0.2865697954242137</v>
+      </c>
+      <c r="R307" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S307" t="n">
+        <v>5.869155954313985</v>
+      </c>
+      <c r="T307" t="n">
+        <v>0.968319570256307</v>
+      </c>
+      <c r="U307" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V307" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W307" t="s">
+        <v>680</v>
+      </c>
+      <c r="X307" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
@@ -20994,8 +25689,38 @@
       <c r="M308" t="s">
         <v>4</v>
       </c>
-      <c r="N308">
-        <v>0</v>
+      <c r="N308" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O308" t="s">
+        <v>681</v>
+      </c>
+      <c r="P308" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0.3620702295174496</v>
+      </c>
+      <c r="R308" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S308" t="n">
+        <v>7.380243640728578</v>
+      </c>
+      <c r="T308" t="n">
+        <v>0.9472421524959599</v>
+      </c>
+      <c r="U308" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V308" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W308" t="s">
+        <v>682</v>
+      </c>
+      <c r="X308" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
@@ -21038,8 +25763,38 @@
       <c r="M309" t="s">
         <v>4</v>
       </c>
-      <c r="N309">
-        <v>0</v>
+      <c r="N309" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O309" t="s">
+        <v>683</v>
+      </c>
+      <c r="P309" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0.2932342172124702</v>
+      </c>
+      <c r="R309" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S309" t="n">
+        <v>6.7555650192747745</v>
+      </c>
+      <c r="T309" t="n">
+        <v>0.9570692172742431</v>
+      </c>
+      <c r="U309" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V309" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W309" t="s">
+        <v>684</v>
+      </c>
+      <c r="X309" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
@@ -21082,8 +25837,38 @@
       <c r="M310" t="s">
         <v>4</v>
       </c>
-      <c r="N310">
-        <v>0</v>
+      <c r="N310" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O310" t="s">
+        <v>685</v>
+      </c>
+      <c r="P310" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0.26830809202711414</v>
+      </c>
+      <c r="R310" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S310" t="n">
+        <v>8.65212778682469</v>
+      </c>
+      <c r="T310" t="n">
+        <v>0.940990777028601</v>
+      </c>
+      <c r="U310" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V310" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W310" t="s">
+        <v>686</v>
+      </c>
+      <c r="X310" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
@@ -21126,8 +25911,38 @@
       <c r="M311" t="s">
         <v>4</v>
       </c>
-      <c r="N311">
-        <v>0</v>
+      <c r="N311" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O311" t="s">
+        <v>688</v>
+      </c>
+      <c r="P311" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0.5604910210240828</v>
+      </c>
+      <c r="R311" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S311" t="n">
+        <v>4.937807812484284</v>
+      </c>
+      <c r="T311" t="n">
+        <v>0.9558010888227001</v>
+      </c>
+      <c r="U311" t="n">
+        <v>90.05847953216374</v>
+      </c>
+      <c r="V311" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W311" t="s">
+        <v>689</v>
+      </c>
+      <c r="X311" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
@@ -21170,8 +25985,38 @@
       <c r="M312" t="s">
         <v>4</v>
       </c>
-      <c r="N312">
-        <v>0</v>
+      <c r="N312" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O312" t="s">
+        <v>690</v>
+      </c>
+      <c r="P312" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0.2730606299736653</v>
+      </c>
+      <c r="R312" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S312" t="n">
+        <v>7.6751900259327</v>
+      </c>
+      <c r="T312" t="n">
+        <v>0.9488655827072222</v>
+      </c>
+      <c r="U312" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V312" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W312" t="s">
+        <v>691</v>
+      </c>
+      <c r="X312" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
@@ -21214,8 +26059,38 @@
       <c r="M313" t="s">
         <v>4</v>
       </c>
-      <c r="N313">
-        <v>0</v>
+      <c r="N313" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O313" t="s">
+        <v>692</v>
+      </c>
+      <c r="P313" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0.2977400588414145</v>
+      </c>
+      <c r="R313" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S313" t="n">
+        <v>8.780091767865272</v>
+      </c>
+      <c r="T313" t="n">
+        <v>0.9554508116294037</v>
+      </c>
+      <c r="U313" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V313" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W313" t="s">
+        <v>693</v>
+      </c>
+      <c r="X313" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
@@ -21258,8 +26133,38 @@
       <c r="M314" t="s">
         <v>4</v>
       </c>
-      <c r="N314">
-        <v>0</v>
+      <c r="N314" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O314" t="s">
+        <v>694</v>
+      </c>
+      <c r="P314" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0.2550992762626123</v>
+      </c>
+      <c r="R314" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S314" t="n">
+        <v>3.7518383478618125</v>
+      </c>
+      <c r="T314" t="n">
+        <v>0.963667455690225</v>
+      </c>
+      <c r="U314" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V314" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W314" t="s">
+        <v>695</v>
+      </c>
+      <c r="X314" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
@@ -21302,8 +26207,38 @@
       <c r="M315" t="s">
         <v>4</v>
       </c>
-      <c r="N315">
-        <v>0</v>
+      <c r="N315" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O315" t="s">
+        <v>696</v>
+      </c>
+      <c r="P315" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0.2668361994587496</v>
+      </c>
+      <c r="R315" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="S315" t="n">
+        <v>7.998865266519357</v>
+      </c>
+      <c r="T315" t="n">
+        <v>0.9423895047063621</v>
+      </c>
+      <c r="U315" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V315" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W315" t="s">
+        <v>697</v>
+      </c>
+      <c r="X315" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
@@ -21346,8 +26281,38 @@
       <c r="M316" t="s">
         <v>4</v>
       </c>
-      <c r="N316">
-        <v>0</v>
+      <c r="N316" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O316" t="s">
+        <v>698</v>
+      </c>
+      <c r="P316" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0.20903483108914322</v>
+      </c>
+      <c r="R316" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S316" t="n">
+        <v>3.6756827306158293</v>
+      </c>
+      <c r="T316" t="n">
+        <v>0.9431046038568437</v>
+      </c>
+      <c r="U316" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V316" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W316" t="s">
+        <v>699</v>
+      </c>
+      <c r="X316" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
@@ -21390,8 +26355,38 @@
       <c r="M317" t="s">
         <v>4</v>
       </c>
-      <c r="N317">
-        <v>0</v>
+      <c r="N317" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O317" t="s">
+        <v>700</v>
+      </c>
+      <c r="P317" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0.21507600013968542</v>
+      </c>
+      <c r="R317" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S317" t="n">
+        <v>2.2323731976338244</v>
+      </c>
+      <c r="T317" t="n">
+        <v>0.9864107354425303</v>
+      </c>
+      <c r="U317" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V317" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W317" t="s">
+        <v>701</v>
+      </c>
+      <c r="X317" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
@@ -21434,8 +26429,38 @@
       <c r="M318" t="s">
         <v>4</v>
       </c>
-      <c r="N318">
-        <v>0</v>
+      <c r="N318" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O318" t="s">
+        <v>702</v>
+      </c>
+      <c r="P318" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0.5254119907254786</v>
+      </c>
+      <c r="R318" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S318" t="n">
+        <v>9.596037246234415</v>
+      </c>
+      <c r="T318" t="n">
+        <v>0.9046763643106422</v>
+      </c>
+      <c r="U318" t="n">
+        <v>90.64327485380117</v>
+      </c>
+      <c r="V318" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W318" t="s">
+        <v>703</v>
+      </c>
+      <c r="X318" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
@@ -21478,8 +26503,38 @@
       <c r="M319" t="s">
         <v>4</v>
       </c>
-      <c r="N319">
-        <v>0</v>
+      <c r="N319" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O319" t="s">
+        <v>704</v>
+      </c>
+      <c r="P319" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0.2195794928455168</v>
+      </c>
+      <c r="R319" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S319" t="n">
+        <v>12.869808955391083</v>
+      </c>
+      <c r="T319" t="n">
+        <v>0.8907874625581913</v>
+      </c>
+      <c r="U319" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V319" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W319" t="s">
+        <v>705</v>
+      </c>
+      <c r="X319" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
@@ -21522,8 +26577,38 @@
       <c r="M320" t="s">
         <v>4</v>
       </c>
-      <c r="N320">
-        <v>0</v>
+      <c r="N320" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O320" t="s">
+        <v>706</v>
+      </c>
+      <c r="P320" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0.21969655239231045</v>
+      </c>
+      <c r="R320" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S320" t="n">
+        <v>3.9565473722738402</v>
+      </c>
+      <c r="T320" t="n">
+        <v>0.9782362298225707</v>
+      </c>
+      <c r="U320" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V320" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W320" t="s">
+        <v>707</v>
+      </c>
+      <c r="X320" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
@@ -21566,8 +26651,38 @@
       <c r="M321" t="s">
         <v>4</v>
       </c>
-      <c r="N321">
-        <v>0</v>
+      <c r="N321" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O321" t="s">
+        <v>708</v>
+      </c>
+      <c r="P321" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0.1837902959353368</v>
+      </c>
+      <c r="R321" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S321" t="n">
+        <v>5.747383801829453</v>
+      </c>
+      <c r="T321" t="n">
+        <v>0.9416591946577558</v>
+      </c>
+      <c r="U321" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V321" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W321" t="s">
+        <v>709</v>
+      </c>
+      <c r="X321" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
@@ -21610,8 +26725,38 @@
       <c r="M322" t="s">
         <v>4</v>
       </c>
-      <c r="N322">
-        <v>0</v>
+      <c r="N322" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O322" t="s">
+        <v>710</v>
+      </c>
+      <c r="P322" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0.2386302375860314</v>
+      </c>
+      <c r="R322" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S322" t="n">
+        <v>4.206407393716875</v>
+      </c>
+      <c r="T322" t="n">
+        <v>0.9660462420722595</v>
+      </c>
+      <c r="U322" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V322" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W322" t="s">
+        <v>711</v>
+      </c>
+      <c r="X322" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
@@ -21654,8 +26799,38 @@
       <c r="M323" t="s">
         <v>4</v>
       </c>
-      <c r="N323">
-        <v>0</v>
+      <c r="N323" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O323" t="s">
+        <v>712</v>
+      </c>
+      <c r="P323" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0.21312090096384217</v>
+      </c>
+      <c r="R323" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S323" t="n">
+        <v>7.678464495903334</v>
+      </c>
+      <c r="T323" t="n">
+        <v>0.9310679205899853</v>
+      </c>
+      <c r="U323" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V323" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W323" t="s">
+        <v>713</v>
+      </c>
+      <c r="X323" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
@@ -21698,8 +26873,38 @@
       <c r="M324" t="s">
         <v>4</v>
       </c>
-      <c r="N324">
-        <v>0</v>
+      <c r="N324" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O324" t="s">
+        <v>714</v>
+      </c>
+      <c r="P324" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0.1687633533416335</v>
+      </c>
+      <c r="R324" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S324" t="n">
+        <v>2.3412300267473793</v>
+      </c>
+      <c r="T324" t="n">
+        <v>0.9861056980100877</v>
+      </c>
+      <c r="U324" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V324" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W324" t="s">
+        <v>715</v>
+      </c>
+      <c r="X324" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
@@ -21742,8 +26947,38 @@
       <c r="M325" t="s">
         <v>4</v>
       </c>
-      <c r="N325">
-        <v>0</v>
+      <c r="N325" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O325" t="s">
+        <v>716</v>
+      </c>
+      <c r="P325" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0.5059428639272419</v>
+      </c>
+      <c r="R325" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S325" t="n">
+        <v>4.513354965151003</v>
+      </c>
+      <c r="T325" t="n">
+        <v>0.9449138507359003</v>
+      </c>
+      <c r="U325" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="V325" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W325" t="s">
+        <v>717</v>
+      </c>
+      <c r="X325" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
@@ -21786,8 +27021,38 @@
       <c r="M326" t="s">
         <v>4</v>
       </c>
-      <c r="N326">
-        <v>0</v>
+      <c r="N326" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O326" t="s">
+        <v>718</v>
+      </c>
+      <c r="P326" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0.17931481994432552</v>
+      </c>
+      <c r="R326" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S326" t="n">
+        <v>2.0564718974967344</v>
+      </c>
+      <c r="T326" t="n">
+        <v>0.9796813110338272</v>
+      </c>
+      <c r="U326" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V326" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W326" t="s">
+        <v>719</v>
+      </c>
+      <c r="X326" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
@@ -21830,8 +27095,38 @@
       <c r="M327" t="s">
         <v>4</v>
       </c>
-      <c r="N327">
-        <v>0</v>
+      <c r="N327" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O327" t="s">
+        <v>720</v>
+      </c>
+      <c r="P327" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0.2850923721154732</v>
+      </c>
+      <c r="R327" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S327" t="n">
+        <v>8.264562542807269</v>
+      </c>
+      <c r="T327" t="n">
+        <v>0.9322299300135598</v>
+      </c>
+      <c r="U327" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V327" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W327" t="s">
+        <v>721</v>
+      </c>
+      <c r="X327" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
@@ -21874,8 +27169,38 @@
       <c r="M328" t="s">
         <v>4</v>
       </c>
-      <c r="N328">
-        <v>0</v>
+      <c r="N328" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O328" t="s">
+        <v>722</v>
+      </c>
+      <c r="P328" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0.1740489323815897</v>
+      </c>
+      <c r="R328" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S328" t="n">
+        <v>2.9717122841002976</v>
+      </c>
+      <c r="T328" t="n">
+        <v>0.9688863995729572</v>
+      </c>
+      <c r="U328" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V328" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W328" t="s">
+        <v>723</v>
+      </c>
+      <c r="X328" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
@@ -21918,8 +27243,38 @@
       <c r="M329" t="s">
         <v>4</v>
       </c>
-      <c r="N329">
-        <v>0</v>
+      <c r="N329" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O329" t="s">
+        <v>724</v>
+      </c>
+      <c r="P329" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0.25513227928241555</v>
+      </c>
+      <c r="R329" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S329" t="n">
+        <v>6.0433817643828185</v>
+      </c>
+      <c r="T329" t="n">
+        <v>0.9424940231092938</v>
+      </c>
+      <c r="U329" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V329" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W329" t="s">
+        <v>725</v>
+      </c>
+      <c r="X329" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
@@ -21962,8 +27317,38 @@
       <c r="M330" t="s">
         <v>4</v>
       </c>
-      <c r="N330">
-        <v>0</v>
+      <c r="N330" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O330" t="s">
+        <v>726</v>
+      </c>
+      <c r="P330" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0.18053066580360344</v>
+      </c>
+      <c r="R330" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S330" t="n">
+        <v>3.957096845266325</v>
+      </c>
+      <c r="T330" t="n">
+        <v>0.9658957285453326</v>
+      </c>
+      <c r="U330" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V330" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W330" t="s">
+        <v>727</v>
+      </c>
+      <c r="X330" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
@@ -22006,8 +27391,38 @@
       <c r="M331" t="s">
         <v>4</v>
       </c>
-      <c r="N331">
-        <v>0</v>
+      <c r="N331" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O331" t="s">
+        <v>728</v>
+      </c>
+      <c r="P331" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0.27150539680115493</v>
+      </c>
+      <c r="R331" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S331" t="n">
+        <v>5.752499435001775</v>
+      </c>
+      <c r="T331" t="n">
+        <v>0.9141387857490837</v>
+      </c>
+      <c r="U331" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V331" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W331" t="s">
+        <v>729</v>
+      </c>
+      <c r="X331" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
@@ -22050,8 +27465,38 @@
       <c r="M332" t="s">
         <v>4</v>
       </c>
-      <c r="N332">
-        <v>0</v>
+      <c r="N332" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O332" t="s">
+        <v>730</v>
+      </c>
+      <c r="P332" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0.4919034762325989</v>
+      </c>
+      <c r="R332" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S332" t="n">
+        <v>11.60817721227419</v>
+      </c>
+      <c r="T332" t="n">
+        <v>0.910007465692296</v>
+      </c>
+      <c r="U332" t="n">
+        <v>93.5672514619883</v>
+      </c>
+      <c r="V332" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W332" t="s">
+        <v>731</v>
+      </c>
+      <c r="X332" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
@@ -22094,8 +27539,38 @@
       <c r="M333" t="s">
         <v>4</v>
       </c>
-      <c r="N333">
-        <v>0</v>
+      <c r="N333" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O333" t="s">
+        <v>732</v>
+      </c>
+      <c r="P333" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0.3710506661506816</v>
+      </c>
+      <c r="R333" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S333" t="n">
+        <v>9.39016721350508</v>
+      </c>
+      <c r="T333" t="n">
+        <v>0.932581790601568</v>
+      </c>
+      <c r="U333" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V333" t="n">
+        <v>42.10526315789475</v>
+      </c>
+      <c r="W333" t="s">
+        <v>733</v>
+      </c>
+      <c r="X333" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
@@ -22138,8 +27613,38 @@
       <c r="M334" t="s">
         <v>4</v>
       </c>
-      <c r="N334">
-        <v>0</v>
+      <c r="N334" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O334" t="s">
+        <v>734</v>
+      </c>
+      <c r="P334" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0.3285071278633662</v>
+      </c>
+      <c r="R334" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S334" t="n">
+        <v>4.949763409799485</v>
+      </c>
+      <c r="T334" t="n">
+        <v>0.968511139437798</v>
+      </c>
+      <c r="U334" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V334" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W334" t="s">
+        <v>735</v>
+      </c>
+      <c r="X334" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
@@ -22182,8 +27687,38 @@
       <c r="M335" t="s">
         <v>4</v>
       </c>
-      <c r="N335">
-        <v>0</v>
+      <c r="N335" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O335" t="s">
+        <v>736</v>
+      </c>
+      <c r="P335" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0.3167459158440362</v>
+      </c>
+      <c r="R335" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S335" t="n">
+        <v>8.992511418808473</v>
+      </c>
+      <c r="T335" t="n">
+        <v>0.9334966263771662</v>
+      </c>
+      <c r="U335" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V335" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W335" t="s">
+        <v>737</v>
+      </c>
+      <c r="X335" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
@@ -22226,8 +27761,38 @@
       <c r="M336" t="s">
         <v>4</v>
       </c>
-      <c r="N336">
-        <v>0</v>
+      <c r="N336" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O336" t="s">
+        <v>738</v>
+      </c>
+      <c r="P336" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0.3642867501150313</v>
+      </c>
+      <c r="R336" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="S336" t="n">
+        <v>7.557447961664809</v>
+      </c>
+      <c r="T336" t="n">
+        <v>0.9349351832907057</v>
+      </c>
+      <c r="U336" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V336" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W336" t="s">
+        <v>739</v>
+      </c>
+      <c r="X336" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
@@ -22270,8 +27835,38 @@
       <c r="M337" t="s">
         <v>4</v>
       </c>
-      <c r="N337">
-        <v>0</v>
+      <c r="N337" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O337" t="s">
+        <v>740</v>
+      </c>
+      <c r="P337" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0.29017727297068596</v>
+      </c>
+      <c r="R337" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S337" t="n">
+        <v>7.468713427714398</v>
+      </c>
+      <c r="T337" t="n">
+        <v>0.9386378612227124</v>
+      </c>
+      <c r="U337" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V337" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W337" t="s">
+        <v>741</v>
+      </c>
+      <c r="X337" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
@@ -22314,8 +27909,38 @@
       <c r="M338" t="s">
         <v>4</v>
       </c>
-      <c r="N338">
-        <v>0</v>
+      <c r="N338" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O338" t="s">
+        <v>742</v>
+      </c>
+      <c r="P338" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0.2418708364300617</v>
+      </c>
+      <c r="R338" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S338" t="n">
+        <v>4.388304489224556</v>
+      </c>
+      <c r="T338" t="n">
+        <v>0.9405184065391888</v>
+      </c>
+      <c r="U338" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V338" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W338" t="s">
+        <v>743</v>
+      </c>
+      <c r="X338" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
@@ -22358,8 +27983,38 @@
       <c r="M339" t="s">
         <v>4</v>
       </c>
-      <c r="N339">
-        <v>0</v>
+      <c r="N339" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O339" t="s">
+        <v>745</v>
+      </c>
+      <c r="P339" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0.6021570291530072</v>
+      </c>
+      <c r="R339" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S339" t="n">
+        <v>5.148740621699512</v>
+      </c>
+      <c r="T339" t="n">
+        <v>0.9510183491211529</v>
+      </c>
+      <c r="U339" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="V339" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W339" t="s">
+        <v>746</v>
+      </c>
+      <c r="X339" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
@@ -22402,8 +28057,38 @@
       <c r="M340" t="s">
         <v>4</v>
       </c>
-      <c r="N340">
-        <v>0</v>
+      <c r="N340" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O340" t="s">
+        <v>747</v>
+      </c>
+      <c r="P340" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0.256772918895404</v>
+      </c>
+      <c r="R340" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S340" t="n">
+        <v>3.8823489068512527</v>
+      </c>
+      <c r="T340" t="n">
+        <v>0.9647141080438341</v>
+      </c>
+      <c r="U340" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V340" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W340" t="s">
+        <v>748</v>
+      </c>
+      <c r="X340" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
@@ -22446,8 +28131,38 @@
       <c r="M341" t="s">
         <v>4</v>
       </c>
-      <c r="N341">
-        <v>0</v>
+      <c r="N341" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O341" t="s">
+        <v>749</v>
+      </c>
+      <c r="P341" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0.2782667160986154</v>
+      </c>
+      <c r="R341" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S341" t="n">
+        <v>9.402315706545672</v>
+      </c>
+      <c r="T341" t="n">
+        <v>0.9381923904971394</v>
+      </c>
+      <c r="U341" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V341" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W341" t="s">
+        <v>750</v>
+      </c>
+      <c r="X341" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
@@ -22490,8 +28205,38 @@
       <c r="M342" t="s">
         <v>4</v>
       </c>
-      <c r="N342">
-        <v>0</v>
+      <c r="N342" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O342" t="s">
+        <v>751</v>
+      </c>
+      <c r="P342" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0.23555607293652336</v>
+      </c>
+      <c r="R342" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S342" t="n">
+        <v>4.079550831855506</v>
+      </c>
+      <c r="T342" t="n">
+        <v>0.9753379040866492</v>
+      </c>
+      <c r="U342" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V342" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W342" t="s">
+        <v>752</v>
+      </c>
+      <c r="X342" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
@@ -22534,8 +28279,38 @@
       <c r="M343" t="s">
         <v>4</v>
       </c>
-      <c r="N343">
-        <v>0</v>
+      <c r="N343" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O343" t="s">
+        <v>753</v>
+      </c>
+      <c r="P343" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0.3071314618858967</v>
+      </c>
+      <c r="R343" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S343" t="n">
+        <v>5.332260398551214</v>
+      </c>
+      <c r="T343" t="n">
+        <v>0.9456900059597316</v>
+      </c>
+      <c r="U343" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V343" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W343" t="s">
+        <v>754</v>
+      </c>
+      <c r="X343" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
@@ -22578,8 +28353,38 @@
       <c r="M344" t="s">
         <v>4</v>
       </c>
-      <c r="N344">
-        <v>0</v>
+      <c r="N344" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O344" t="s">
+        <v>755</v>
+      </c>
+      <c r="P344" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0.2488660664381097</v>
+      </c>
+      <c r="R344" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S344" t="n">
+        <v>6.4790180032690365</v>
+      </c>
+      <c r="T344" t="n">
+        <v>0.9288292084130376</v>
+      </c>
+      <c r="U344" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V344" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W344" t="s">
+        <v>756</v>
+      </c>
+      <c r="X344" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
@@ -22622,8 +28427,38 @@
       <c r="M345" t="s">
         <v>4</v>
       </c>
-      <c r="N345">
-        <v>0</v>
+      <c r="N345" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O345" t="s">
+        <v>757</v>
+      </c>
+      <c r="P345" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0.20818791937141512</v>
+      </c>
+      <c r="R345" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S345" t="n">
+        <v>2.407491541226943</v>
+      </c>
+      <c r="T345" t="n">
+        <v>0.982494404846902</v>
+      </c>
+      <c r="U345" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V345" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W345" t="s">
+        <v>758</v>
+      </c>
+      <c r="X345" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
@@ -22666,8 +28501,38 @@
       <c r="M346" t="s">
         <v>4</v>
       </c>
-      <c r="N346">
-        <v>0</v>
+      <c r="N346" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O346" t="s">
+        <v>759</v>
+      </c>
+      <c r="P346" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0.45546245983207</v>
+      </c>
+      <c r="R346" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S346" t="n">
+        <v>5.011141944294625</v>
+      </c>
+      <c r="T346" t="n">
+        <v>0.9559498402273681</v>
+      </c>
+      <c r="U346" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V346" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W346" t="s">
+        <v>760</v>
+      </c>
+      <c r="X346" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
@@ -22710,8 +28575,38 @@
       <c r="M347" t="s">
         <v>4</v>
       </c>
-      <c r="N347">
-        <v>0</v>
+      <c r="N347" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O347" t="s">
+        <v>761</v>
+      </c>
+      <c r="P347" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0.25610373627812955</v>
+      </c>
+      <c r="R347" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S347" t="n">
+        <v>5.219940486919716</v>
+      </c>
+      <c r="T347" t="n">
+        <v>0.9568161407677964</v>
+      </c>
+      <c r="U347" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V347" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W347" t="s">
+        <v>762</v>
+      </c>
+      <c r="X347" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
@@ -22754,8 +28649,38 @@
       <c r="M348" t="s">
         <v>4</v>
       </c>
-      <c r="N348">
-        <v>0</v>
+      <c r="N348" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O348" t="s">
+        <v>763</v>
+      </c>
+      <c r="P348" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0.2609063562956049</v>
+      </c>
+      <c r="R348" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S348" t="n">
+        <v>5.319778801544911</v>
+      </c>
+      <c r="T348" t="n">
+        <v>0.9716328684990396</v>
+      </c>
+      <c r="U348" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V348" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W348" t="s">
+        <v>764</v>
+      </c>
+      <c r="X348" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
@@ -22798,8 +28723,38 @@
       <c r="M349" t="s">
         <v>4</v>
       </c>
-      <c r="N349">
-        <v>0</v>
+      <c r="N349" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O349" t="s">
+        <v>765</v>
+      </c>
+      <c r="P349" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0.20707474753821842</v>
+      </c>
+      <c r="R349" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S349" t="n">
+        <v>3.734065911115113</v>
+      </c>
+      <c r="T349" t="n">
+        <v>0.9721340305246063</v>
+      </c>
+      <c r="U349" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V349" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W349" t="s">
+        <v>766</v>
+      </c>
+      <c r="X349" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
@@ -22842,8 +28797,38 @@
       <c r="M350" t="s">
         <v>4</v>
       </c>
-      <c r="N350">
-        <v>0</v>
+      <c r="N350" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O350" t="s">
+        <v>767</v>
+      </c>
+      <c r="P350" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0.26247366221415724</v>
+      </c>
+      <c r="R350" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S350" t="n">
+        <v>7.737648757543876</v>
+      </c>
+      <c r="T350" t="n">
+        <v>0.9484757294507011</v>
+      </c>
+      <c r="U350" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V350" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W350" t="s">
+        <v>768</v>
+      </c>
+      <c r="X350" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
@@ -22886,8 +28871,38 @@
       <c r="M351" t="s">
         <v>4</v>
       </c>
-      <c r="N351">
-        <v>0</v>
+      <c r="N351" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O351" t="s">
+        <v>769</v>
+      </c>
+      <c r="P351" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0.20775392046469854</v>
+      </c>
+      <c r="R351" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S351" t="n">
+        <v>3.5724228366329314</v>
+      </c>
+      <c r="T351" t="n">
+        <v>0.9627832694334002</v>
+      </c>
+      <c r="U351" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V351" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W351" t="s">
+        <v>770</v>
+      </c>
+      <c r="X351" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
@@ -22930,8 +28945,38 @@
       <c r="M352" t="s">
         <v>4</v>
       </c>
-      <c r="N352">
-        <v>0</v>
+      <c r="N352" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O352" t="s">
+        <v>771</v>
+      </c>
+      <c r="P352" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0.16752341943698745</v>
+      </c>
+      <c r="R352" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S352" t="n">
+        <v>2.423604182223432</v>
+      </c>
+      <c r="T352" t="n">
+        <v>0.9755195452353592</v>
+      </c>
+      <c r="U352" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V352" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W352" t="s">
+        <v>772</v>
+      </c>
+      <c r="X352" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
@@ -22974,8 +29019,38 @@
       <c r="M353" t="s">
         <v>4</v>
       </c>
-      <c r="N353">
-        <v>0</v>
+      <c r="N353" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O353" t="s">
+        <v>773</v>
+      </c>
+      <c r="P353" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0.5628617413319681</v>
+      </c>
+      <c r="R353" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S353" t="n">
+        <v>7.7581278679308925</v>
+      </c>
+      <c r="T353" t="n">
+        <v>0.9398643517718551</v>
+      </c>
+      <c r="U353" t="n">
+        <v>87.13450292397661</v>
+      </c>
+      <c r="V353" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W353" t="s">
+        <v>774</v>
+      </c>
+      <c r="X353" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
@@ -23018,8 +29093,38 @@
       <c r="M354" t="s">
         <v>4</v>
       </c>
-      <c r="N354">
-        <v>0</v>
+      <c r="N354" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O354" t="s">
+        <v>775</v>
+      </c>
+      <c r="P354" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0.15608621858302563</v>
+      </c>
+      <c r="R354" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S354" t="n">
+        <v>2.2815279978259078</v>
+      </c>
+      <c r="T354" t="n">
+        <v>0.9796573779898425</v>
+      </c>
+      <c r="U354" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V354" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W354" t="s">
+        <v>776</v>
+      </c>
+      <c r="X354" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
@@ -23062,8 +29167,38 @@
       <c r="M355" t="s">
         <v>4</v>
       </c>
-      <c r="N355">
-        <v>0</v>
+      <c r="N355" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O355" t="s">
+        <v>777</v>
+      </c>
+      <c r="P355" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0.23855703517001992</v>
+      </c>
+      <c r="R355" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S355" t="n">
+        <v>4.353239034708586</v>
+      </c>
+      <c r="T355" t="n">
+        <v>0.9641488115505097</v>
+      </c>
+      <c r="U355" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V355" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W355" t="s">
+        <v>778</v>
+      </c>
+      <c r="X355" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
@@ -23106,8 +29241,38 @@
       <c r="M356" t="s">
         <v>4</v>
       </c>
-      <c r="N356">
-        <v>0</v>
+      <c r="N356" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O356" t="s">
+        <v>779</v>
+      </c>
+      <c r="P356" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0.1886758759901319</v>
+      </c>
+      <c r="R356" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S356" t="n">
+        <v>5.783061045087404</v>
+      </c>
+      <c r="T356" t="n">
+        <v>0.956627535246574</v>
+      </c>
+      <c r="U356" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V356" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W356" t="s">
+        <v>780</v>
+      </c>
+      <c r="X356" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
@@ -23150,8 +29315,38 @@
       <c r="M357" t="s">
         <v>4</v>
       </c>
-      <c r="N357">
-        <v>0</v>
+      <c r="N357" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O357" t="s">
+        <v>781</v>
+      </c>
+      <c r="P357" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0.2810466979388071</v>
+      </c>
+      <c r="R357" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S357" t="n">
+        <v>5.458688899127535</v>
+      </c>
+      <c r="T357" t="n">
+        <v>0.9437362837183676</v>
+      </c>
+      <c r="U357" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V357" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W357" t="s">
+        <v>782</v>
+      </c>
+      <c r="X357" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
@@ -23194,8 +29389,38 @@
       <c r="M358" t="s">
         <v>4</v>
       </c>
-      <c r="N358">
-        <v>0</v>
+      <c r="N358" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O358" t="s">
+        <v>783</v>
+      </c>
+      <c r="P358" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0.17565228971799662</v>
+      </c>
+      <c r="R358" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S358" t="n">
+        <v>3.025068436930995</v>
+      </c>
+      <c r="T358" t="n">
+        <v>0.9833976115167429</v>
+      </c>
+      <c r="U358" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V358" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W358" t="s">
+        <v>784</v>
+      </c>
+      <c r="X358" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
@@ -23238,8 +29463,38 @@
       <c r="M359" t="s">
         <v>4</v>
       </c>
-      <c r="N359">
-        <v>0</v>
+      <c r="N359" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O359" t="s">
+        <v>785</v>
+      </c>
+      <c r="P359" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0.31058310103504283</v>
+      </c>
+      <c r="R359" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S359" t="n">
+        <v>3.648141867951937</v>
+      </c>
+      <c r="T359" t="n">
+        <v>0.9684911003254388</v>
+      </c>
+      <c r="U359" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V359" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W359" t="s">
+        <v>786</v>
+      </c>
+      <c r="X359" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
@@ -23282,8 +29537,38 @@
       <c r="M360" t="s">
         <v>4</v>
       </c>
-      <c r="N360">
-        <v>0</v>
+      <c r="N360" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O360" t="s">
+        <v>787</v>
+      </c>
+      <c r="P360" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0.5236825288360745</v>
+      </c>
+      <c r="R360" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S360" t="n">
+        <v>7.737117165458577</v>
+      </c>
+      <c r="T360" t="n">
+        <v>0.9351439695141975</v>
+      </c>
+      <c r="U360" t="n">
+        <v>87.71929824561404</v>
+      </c>
+      <c r="V360" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W360" t="s">
+        <v>788</v>
+      </c>
+      <c r="X360" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
@@ -23326,8 +29611,38 @@
       <c r="M361" t="s">
         <v>4</v>
       </c>
-      <c r="N361">
-        <v>0</v>
+      <c r="N361" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O361" t="s">
+        <v>789</v>
+      </c>
+      <c r="P361" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0.3275491833129305</v>
+      </c>
+      <c r="R361" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S361" t="n">
+        <v>9.108908802360075</v>
+      </c>
+      <c r="T361" t="n">
+        <v>0.9368398379803723</v>
+      </c>
+      <c r="U361" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V361" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W361" t="s">
+        <v>790</v>
+      </c>
+      <c r="X361" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
@@ -23370,8 +29685,38 @@
       <c r="M362" t="s">
         <v>4</v>
       </c>
-      <c r="N362">
-        <v>0</v>
+      <c r="N362" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O362" t="s">
+        <v>791</v>
+      </c>
+      <c r="P362" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0.35030364440555495</v>
+      </c>
+      <c r="R362" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S362" t="n">
+        <v>7.396518887193818</v>
+      </c>
+      <c r="T362" t="n">
+        <v>0.9304366567056761</v>
+      </c>
+      <c r="U362" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V362" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W362" t="s">
+        <v>792</v>
+      </c>
+      <c r="X362" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
@@ -23414,8 +29759,38 @@
       <c r="M363" t="s">
         <v>4</v>
       </c>
-      <c r="N363">
-        <v>0</v>
+      <c r="N363" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O363" t="s">
+        <v>793</v>
+      </c>
+      <c r="P363" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0.270120972193471</v>
+      </c>
+      <c r="R363" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S363" t="n">
+        <v>6.520095255089526</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0.9568328610821403</v>
+      </c>
+      <c r="U363" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V363" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W363" t="s">
+        <v>794</v>
+      </c>
+      <c r="X363" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
@@ -23458,8 +29833,38 @@
       <c r="M364" t="s">
         <v>4</v>
       </c>
-      <c r="N364">
-        <v>0</v>
+      <c r="N364" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O364" t="s">
+        <v>795</v>
+      </c>
+      <c r="P364" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0.37407295371829363</v>
+      </c>
+      <c r="R364" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="S364" t="n">
+        <v>7.833921899916409</v>
+      </c>
+      <c r="T364" t="n">
+        <v>0.938126389439777</v>
+      </c>
+      <c r="U364" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V364" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W364" t="s">
+        <v>796</v>
+      </c>
+      <c r="X364" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
@@ -23504,6 +29909,18 @@
       </c>
       <c r="N365">
         <v>0</v>
+      </c>
+      <c r="O365" t="s">
+        <v>797</v>
+      </c>
+      <c r="P365" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0.2827228216366322</v>
+      </c>
+      <c r="W365" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
